--- a/data/beers.xlsx
+++ b/data/beers.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jim.parr/repos/beerpbl/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2AAF5F2-6F4D-2C4F-A985-2C088AC9B172}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08DAC625-8EF2-2645-A16E-74F37053E288}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="1100" windowWidth="30220" windowHeight="21100" xr2:uid="{47864DF4-71D9-4F42-A5D2-AF6EFB75F361}"/>
+    <workbookView xWindow="15840" yWindow="500" windowWidth="22560" windowHeight="21100" xr2:uid="{47864DF4-71D9-4F42-A5D2-AF6EFB75F361}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="beers" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="254">
   <si>
     <t>beer</t>
   </si>
@@ -631,6 +631,171 @@
   </si>
   <si>
     <t>https://www.beer52.com/shop/product/virginia-beer-co/double-free-verse-dipa/3229</t>
+  </si>
+  <si>
+    <t>Melbourne</t>
+  </si>
+  <si>
+    <t>default.png</t>
+  </si>
+  <si>
+    <t>Old Mate</t>
+  </si>
+  <si>
+    <t>Moon Dog Brewery</t>
+  </si>
+  <si>
+    <t>The Heart</t>
+  </si>
+  <si>
+    <t>Hop Nation</t>
+  </si>
+  <si>
+    <t>Metamorphosis</t>
+  </si>
+  <si>
+    <t>Kaiju!</t>
+  </si>
+  <si>
+    <t>Juicy IPA</t>
+  </si>
+  <si>
+    <t>3 Ravens</t>
+  </si>
+  <si>
+    <t>NEIPA</t>
+  </si>
+  <si>
+    <t>Karma</t>
+  </si>
+  <si>
+    <t>9-12</t>
+  </si>
+  <si>
+    <t>Cake Hole</t>
+  </si>
+  <si>
+    <t>Black Forest Stout</t>
+  </si>
+  <si>
+    <t>Cthluhu On The Moon</t>
+  </si>
+  <si>
+    <t>Salted Caramel Shake</t>
+  </si>
+  <si>
+    <t>Salted caramel milkshake IPA</t>
+  </si>
+  <si>
+    <t>Moondog-Cake-Hole-Black-Forest-Stout.png</t>
+  </si>
+  <si>
+    <t>https://www.beer52.com/shop/product/moon-dog-craft-brewery/cake-hole-black-forest-stout/3485</t>
+  </si>
+  <si>
+    <t>3-Ravens-Juicy-IPA.png</t>
+  </si>
+  <si>
+    <t>https://www.beer52.com/shop/product/3-ravens-brewery/juicy-ipa1/3475</t>
+  </si>
+  <si>
+    <t>Moondog-Old-Mate-Pale-Ale.png</t>
+  </si>
+  <si>
+    <t>https://www.beer52.com/shop/product/moon-dog-craft-brewery/old-mate/3483</t>
+  </si>
+  <si>
+    <t>Kaiju-Metamorphosis-IPA.png</t>
+  </si>
+  <si>
+    <t>https://www.beer52.com/shop/product/kaiju-beer/metamorphosis-ipa/3480</t>
+  </si>
+  <si>
+    <t>Hop-Nation-KArma-Oatmeal-Stout.png</t>
+  </si>
+  <si>
+    <t>https://www.beer52.com/shop/product/hop-nation-brewing-co/karma-oatmeal-stout/3479</t>
+  </si>
+  <si>
+    <t>https://www.beer52.com/shop/product/hop-nation-brewing-co/the-heart-pale-ale/3477</t>
+  </si>
+  <si>
+    <t>Boatrocker-Dank-and-Bitter-IPA.png</t>
+  </si>
+  <si>
+    <t>https://www.beer52.com/shop/product/boatrocker-brewers-distillers/dank-bitter-west-coast-ipa/3476</t>
+  </si>
+  <si>
+    <t>https://www.beer52.com/shop/product/sailors-grave-brewing/out-too-far-pale-ale/3489</t>
+  </si>
+  <si>
+    <t>Sailors-Grave-Out-Too-Far-Coastal-Saltbush-Pale-ale.png</t>
+  </si>
+  <si>
+    <t>Moondog-Cake-Sir-Plum-McCartney-Sour-Ale.png</t>
+  </si>
+  <si>
+    <t>https://www.beer52.com/shop/product/moon-dog-craft-brewery/magnificent-mullet-series-sir-plum-mccartney-sour-ale/3487</t>
+  </si>
+  <si>
+    <t>https://www.beer52.com/shop/product/hop-nation-brewing-co/the-damned-pilsner/3478</t>
+  </si>
+  <si>
+    <t>Hop-Nation-The-Damned-Pilsner.png</t>
+  </si>
+  <si>
+    <t>Moondog-Cake-Beer-Can-Tropical-Lager.png</t>
+  </si>
+  <si>
+    <t>https://www.beer52.com/shop/product/moon-dog-craft-brewery/beer-can/3484</t>
+  </si>
+  <si>
+    <t>Dank &amp; Bitter</t>
+  </si>
+  <si>
+    <t>Out Too Far</t>
+  </si>
+  <si>
+    <t>Sir Plum McCartney</t>
+  </si>
+  <si>
+    <t>The Damned</t>
+  </si>
+  <si>
+    <t>Beer Can</t>
+  </si>
+  <si>
+    <t>Sailer's Grave</t>
+  </si>
+  <si>
+    <t>Boatrocker Brewers &amp; Distillers</t>
+  </si>
+  <si>
+    <t>Orbost</t>
+  </si>
+  <si>
+    <t>Tropical lager</t>
+  </si>
+  <si>
+    <t>5-8</t>
+  </si>
+  <si>
+    <t>Pilsner</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Hazy pale</t>
+  </si>
+  <si>
+    <t>Plum sour ale</t>
+  </si>
+  <si>
+    <t>https://www.beer52.com/</t>
+  </si>
+  <si>
+    <t>Hop-Nation-The-Heart-pale-ale.png</t>
   </si>
 </sst>
 </file>
@@ -672,9 +837,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -989,16 +1155,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58096622-42DE-4E43-A4CA-F3B7FB497972}">
-  <dimension ref="A1:R32"/>
+  <dimension ref="A1:R45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="35.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.33203125" bestFit="1" customWidth="1"/>
@@ -1014,7 +1180,7 @@
     <col min="15" max="15" width="21.83203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="51.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="89.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="108.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
@@ -1075,31 +1241,31 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>242</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>202</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>199</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
+        <v>137</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>246</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J2">
         <v>2</v>
@@ -1108,216 +1274,216 @@
         <v>3</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N2">
         <v>2</v>
       </c>
       <c r="O2" t="s">
-        <v>20</v>
+        <v>199</v>
       </c>
       <c r="P2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q2" t="s">
-        <v>21</v>
+        <v>236</v>
       </c>
       <c r="R2" t="s">
-        <v>168</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>241</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>204</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>199</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>26</v>
+        <v>247</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>248</v>
       </c>
       <c r="F3">
         <v>4.8</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N3">
         <v>1</v>
       </c>
       <c r="O3" t="s">
-        <v>20</v>
+        <v>199</v>
       </c>
       <c r="P3">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q3" t="s">
-        <v>28</v>
+        <v>235</v>
       </c>
       <c r="R3" t="s">
-        <v>169</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>240</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>202</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>199</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>251</v>
       </c>
       <c r="F4">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4">
         <v>5</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>2</v>
       </c>
       <c r="K4">
         <v>5</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>20</v>
+        <v>199</v>
       </c>
       <c r="P4">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q4" t="s">
-        <v>30</v>
+        <v>232</v>
       </c>
       <c r="R4" t="s">
-        <v>170</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>239</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>243</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>245</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>39</v>
+        <v>249</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="F5">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="G5">
         <v>4</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O5" t="s">
-        <v>20</v>
+        <v>199</v>
       </c>
       <c r="P5">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q5" t="s">
-        <v>35</v>
+        <v>231</v>
       </c>
       <c r="R5" t="s">
-        <v>171</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>238</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>244</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>199</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>18</v>
+        <v>131</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F6">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -1326,219 +1492,219 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O6" t="s">
-        <v>20</v>
+        <v>199</v>
       </c>
       <c r="P6">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q6" t="s">
-        <v>41</v>
+        <v>228</v>
       </c>
       <c r="R6" t="s">
-        <v>172</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>201</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>202</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>199</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>164</v>
       </c>
       <c r="F7">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="M7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N7">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="O7" t="s">
-        <v>20</v>
+        <v>199</v>
       </c>
       <c r="P7">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q7" t="s">
-        <v>44</v>
+        <v>221</v>
       </c>
       <c r="R7" t="s">
-        <v>173</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>203</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>204</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>199</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>39</v>
+        <v>162</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>164</v>
       </c>
       <c r="F8">
-        <v>4.4000000000000004</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="G8">
         <v>4</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M8">
         <v>4</v>
       </c>
       <c r="N8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O8" t="s">
-        <v>20</v>
+        <v>199</v>
       </c>
       <c r="P8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q8" t="s">
-        <v>50</v>
+        <v>253</v>
       </c>
       <c r="R8" t="s">
-        <v>174</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>205</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>206</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>199</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F9">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="G9">
         <v>4</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N9">
         <v>4</v>
       </c>
       <c r="O9" t="s">
-        <v>20</v>
+        <v>199</v>
       </c>
       <c r="P9">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q9" t="s">
-        <v>54</v>
+        <v>223</v>
       </c>
       <c r="R9" t="s">
-        <v>175</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>207</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>208</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>199</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>18</v>
+        <v>131</v>
       </c>
       <c r="E10" t="s">
-        <v>60</v>
+        <v>209</v>
       </c>
       <c r="F10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G10">
         <v>5</v>
@@ -1550,122 +1716,122 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O10" t="s">
-        <v>20</v>
+        <v>199</v>
       </c>
       <c r="P10">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q10" t="s">
-        <v>58</v>
+        <v>219</v>
       </c>
       <c r="R10" t="s">
-        <v>176</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>210</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>204</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>199</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>62</v>
+        <v>211</v>
       </c>
       <c r="E11" t="s">
-        <v>63</v>
+        <v>150</v>
       </c>
       <c r="F11">
-        <v>4.0999999999999996</v>
+        <v>5</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O11" t="s">
-        <v>20</v>
+        <v>199</v>
       </c>
       <c r="P11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q11" t="s">
-        <v>64</v>
+        <v>225</v>
       </c>
       <c r="R11" t="s">
-        <v>177</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>212</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>202</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>199</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>67</v>
+        <v>213</v>
       </c>
       <c r="F12">
-        <v>7.8</v>
+        <v>6.5</v>
       </c>
       <c r="G12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>3</v>
@@ -1677,245 +1843,245 @@
         <v>2</v>
       </c>
       <c r="O12" t="s">
-        <v>20</v>
+        <v>199</v>
       </c>
       <c r="P12">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q12" t="s">
-        <v>65</v>
-      </c>
-      <c r="R12" t="s">
-        <v>178</v>
+        <v>217</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>68</v>
+        <v>214</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>206</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>199</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="F13">
-        <v>4.7</v>
+        <v>6.5</v>
       </c>
       <c r="G13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N13">
         <v>3</v>
       </c>
       <c r="O13" t="s">
-        <v>20</v>
+        <v>199</v>
       </c>
       <c r="P13">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q13" t="s">
-        <v>71</v>
+        <v>200</v>
       </c>
       <c r="R13" t="s">
-        <v>179</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>215</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
+        <v>208</v>
       </c>
       <c r="C14" t="s">
-        <v>76</v>
+        <v>199</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>216</v>
       </c>
       <c r="F14">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="G14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O14" t="s">
-        <v>73</v>
+        <v>199</v>
       </c>
       <c r="P14">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q14" t="s">
-        <v>72</v>
+        <v>200</v>
       </c>
       <c r="R14" t="s">
-        <v>180</v>
+        <v>252</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="F15">
-        <v>6.8</v>
+        <v>5</v>
       </c>
       <c r="G15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>2</v>
       </c>
       <c r="K15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O15" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="P15">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q15" t="s">
-        <v>78</v>
-      </c>
-      <c r="R15" t="s">
-        <v>181</v>
+        <v>21</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="E16" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="F16">
-        <v>6.5</v>
+        <v>4.8</v>
       </c>
       <c r="G16">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="H16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O16" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="P16">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q16" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="R16" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
         <v>32</v>
@@ -1924,131 +2090,131 @@
         <v>33</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="E17" t="s">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="F17">
-        <v>5.7</v>
+        <v>6.5</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O17" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="P17">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q17" t="s">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="R17" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="E18" t="s">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="F18">
-        <v>5.5</v>
+        <v>4.8</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M18">
         <v>4</v>
       </c>
       <c r="N18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O18" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="P18">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q18" t="s">
-        <v>93</v>
+        <v>35</v>
       </c>
       <c r="R18" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="F19">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -2057,66 +2223,66 @@
         <v>1</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O19" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="P19">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q19" t="s">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c r="R19" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="B20" t="s">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="E20" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="F20">
-        <v>8.6</v>
+        <v>5.5</v>
       </c>
       <c r="G20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K20">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M20">
         <v>3</v>
@@ -2125,316 +2291,316 @@
         <v>3</v>
       </c>
       <c r="O20" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="P20">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q20" t="s">
-        <v>105</v>
+        <v>44</v>
       </c>
       <c r="R20" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>125</v>
+        <v>39</v>
       </c>
       <c r="E21" t="s">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="F21">
-        <v>5.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="G21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K21">
         <v>4</v>
       </c>
       <c r="L21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M21">
         <v>4</v>
       </c>
       <c r="N21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O21" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
       <c r="P21">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q21" t="s">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="R21" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>126</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>127</v>
+        <v>33</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="E22" t="s">
-        <v>128</v>
+        <v>57</v>
       </c>
       <c r="F22">
-        <v>5.3</v>
+        <v>6.8</v>
       </c>
       <c r="G22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O22" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
       <c r="P22">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q22" t="s">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="R22" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>112</v>
+        <v>59</v>
       </c>
       <c r="B23" t="s">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>130</v>
+        <v>29</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>131</v>
+        <v>18</v>
       </c>
       <c r="E23" t="s">
-        <v>132</v>
+        <v>60</v>
       </c>
       <c r="F23">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="G23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K23">
         <v>4</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O23" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
       <c r="P23">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q23" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="R23" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="B24" t="s">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="C24" t="s">
-        <v>134</v>
+        <v>53</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>135</v>
+        <v>62</v>
       </c>
       <c r="E24" t="s">
-        <v>136</v>
+        <v>63</v>
       </c>
       <c r="F24">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>2</v>
       </c>
       <c r="K24">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O24" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
       <c r="P24">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q24" t="s">
-        <v>118</v>
+        <v>64</v>
       </c>
       <c r="R24" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>114</v>
+        <v>66</v>
       </c>
       <c r="B25" t="s">
-        <v>129</v>
+        <v>46</v>
       </c>
       <c r="C25" t="s">
-        <v>130</v>
+        <v>47</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>137</v>
+        <v>39</v>
       </c>
       <c r="E25" t="s">
-        <v>138</v>
+        <v>67</v>
       </c>
       <c r="F25">
-        <v>5.5</v>
+        <v>7.8</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O25" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
       <c r="P25">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q25" t="s">
-        <v>117</v>
+        <v>65</v>
       </c>
       <c r="R25" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="B26" t="s">
-        <v>133</v>
+        <v>69</v>
       </c>
       <c r="C26" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="E26" t="s">
-        <v>139</v>
+        <v>40</v>
       </c>
       <c r="F26">
-        <v>6.5</v>
+        <v>4.7</v>
       </c>
       <c r="G26">
         <v>4</v>
@@ -2446,51 +2612,51 @@
         <v>1</v>
       </c>
       <c r="J26">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M26">
         <v>4</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O26" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
       <c r="P26">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q26" t="s">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="R26" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>141</v>
+        <v>74</v>
       </c>
       <c r="B27" t="s">
-        <v>142</v>
+        <v>75</v>
       </c>
       <c r="C27" t="s">
-        <v>143</v>
+        <v>76</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="E27" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F27">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="G27">
         <v>4</v>
@@ -2499,13 +2665,13 @@
         <v>2</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27">
         <v>3</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>2</v>
@@ -2517,263 +2683,263 @@
         <v>3</v>
       </c>
       <c r="O27" t="s">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="P27">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q27" t="s">
-        <v>140</v>
+        <v>72</v>
       </c>
       <c r="R27" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>147</v>
+        <v>79</v>
       </c>
       <c r="B28" t="s">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="C28" t="s">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="E28" t="s">
-        <v>150</v>
+        <v>49</v>
       </c>
       <c r="F28">
-        <v>5.4</v>
+        <v>6.8</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H28">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M28">
         <v>4</v>
       </c>
       <c r="N28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O28" t="s">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="P28">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q28" t="s">
-        <v>146</v>
+        <v>78</v>
       </c>
       <c r="R28" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>155</v>
+        <v>83</v>
       </c>
       <c r="B29" t="s">
-        <v>159</v>
+        <v>84</v>
       </c>
       <c r="C29" t="s">
-        <v>160</v>
+        <v>85</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>161</v>
+        <v>86</v>
       </c>
       <c r="E29" t="s">
-        <v>163</v>
+        <v>87</v>
       </c>
       <c r="F29">
+        <v>6.5</v>
+      </c>
+      <c r="G29">
         <v>4.5</v>
       </c>
-      <c r="G29">
-        <v>3</v>
-      </c>
       <c r="H29">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O29" t="s">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="P29">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q29" t="s">
-        <v>151</v>
+        <v>88</v>
       </c>
       <c r="R29" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>156</v>
+        <v>90</v>
       </c>
       <c r="B30" t="s">
-        <v>148</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>149</v>
+        <v>33</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>137</v>
+        <v>91</v>
       </c>
       <c r="E30" t="s">
-        <v>164</v>
+        <v>92</v>
       </c>
       <c r="F30">
+        <v>5.7</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>4</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>4</v>
+      </c>
+      <c r="M30">
         <v>5</v>
       </c>
-      <c r="G30">
-        <v>4</v>
-      </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>3</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
-        <v>1</v>
-      </c>
       <c r="N30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O30" t="s">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="P30">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q30" t="s">
-        <v>152</v>
+        <v>89</v>
       </c>
       <c r="R30" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>157</v>
+        <v>94</v>
       </c>
       <c r="B31" t="s">
-        <v>148</v>
+        <v>95</v>
       </c>
       <c r="C31" t="s">
-        <v>149</v>
+        <v>96</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="E31" t="s">
-        <v>165</v>
+        <v>98</v>
       </c>
       <c r="F31">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K31">
         <v>4</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O31" t="s">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="P31">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q31" t="s">
-        <v>153</v>
+        <v>93</v>
       </c>
       <c r="R31" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>158</v>
+        <v>99</v>
       </c>
       <c r="B32" t="s">
-        <v>159</v>
+        <v>100</v>
       </c>
       <c r="C32" t="s">
-        <v>160</v>
+        <v>101</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>162</v>
+        <v>102</v>
       </c>
       <c r="E32" t="s">
-        <v>166</v>
+        <v>103</v>
       </c>
       <c r="F32">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32">
         <v>3</v>
@@ -2782,30 +2948,758 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M32">
         <v>5</v>
       </c>
       <c r="N32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O32" t="s">
+        <v>73</v>
+      </c>
+      <c r="P32">
+        <v>58</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>104</v>
+      </c>
+      <c r="R32" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>106</v>
+      </c>
+      <c r="B33" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E33" t="s">
+        <v>109</v>
+      </c>
+      <c r="F33">
+        <v>8.6</v>
+      </c>
+      <c r="G33">
+        <v>4</v>
+      </c>
+      <c r="H33">
+        <v>3</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>2</v>
+      </c>
+      <c r="K33">
+        <v>4</v>
+      </c>
+      <c r="L33">
+        <v>3</v>
+      </c>
+      <c r="M33">
+        <v>3</v>
+      </c>
+      <c r="N33">
+        <v>3</v>
+      </c>
+      <c r="O33" t="s">
+        <v>73</v>
+      </c>
+      <c r="P33">
+        <v>58</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>105</v>
+      </c>
+      <c r="R33" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>110</v>
+      </c>
+      <c r="B34" t="s">
+        <v>123</v>
+      </c>
+      <c r="C34" t="s">
+        <v>124</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E34" t="s">
+        <v>110</v>
+      </c>
+      <c r="F34">
+        <v>5.3</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>4</v>
+      </c>
+      <c r="K34">
+        <v>4</v>
+      </c>
+      <c r="L34">
+        <v>4</v>
+      </c>
+      <c r="M34">
+        <v>4</v>
+      </c>
+      <c r="N34">
+        <v>2</v>
+      </c>
+      <c r="O34" t="s">
+        <v>122</v>
+      </c>
+      <c r="P34">
+        <v>57</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>121</v>
+      </c>
+      <c r="R34" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>111</v>
+      </c>
+      <c r="B35" t="s">
+        <v>126</v>
+      </c>
+      <c r="C35" t="s">
+        <v>127</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" t="s">
+        <v>128</v>
+      </c>
+      <c r="F35">
+        <v>5.3</v>
+      </c>
+      <c r="G35">
+        <v>3</v>
+      </c>
+      <c r="H35">
+        <v>3</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>4</v>
+      </c>
+      <c r="N35">
+        <v>2</v>
+      </c>
+      <c r="O35" t="s">
+        <v>122</v>
+      </c>
+      <c r="P35">
+        <v>57</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>120</v>
+      </c>
+      <c r="R35" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>112</v>
+      </c>
+      <c r="B36" t="s">
+        <v>129</v>
+      </c>
+      <c r="C36" t="s">
+        <v>130</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E36" t="s">
+        <v>132</v>
+      </c>
+      <c r="F36">
+        <v>6.5</v>
+      </c>
+      <c r="G36">
+        <v>4</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>3</v>
+      </c>
+      <c r="K36">
+        <v>4</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>4</v>
+      </c>
+      <c r="N36">
+        <v>2</v>
+      </c>
+      <c r="O36" t="s">
+        <v>122</v>
+      </c>
+      <c r="P36">
+        <v>57</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>119</v>
+      </c>
+      <c r="R36" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>113</v>
+      </c>
+      <c r="B37" t="s">
+        <v>133</v>
+      </c>
+      <c r="C37" t="s">
+        <v>134</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E37" t="s">
+        <v>136</v>
+      </c>
+      <c r="F37">
+        <v>4</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>2</v>
+      </c>
+      <c r="I37">
+        <v>3</v>
+      </c>
+      <c r="J37">
+        <v>2</v>
+      </c>
+      <c r="K37">
+        <v>4</v>
+      </c>
+      <c r="L37">
+        <v>2</v>
+      </c>
+      <c r="M37">
+        <v>5</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37" t="s">
+        <v>122</v>
+      </c>
+      <c r="P37">
+        <v>57</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>118</v>
+      </c>
+      <c r="R37" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>114</v>
+      </c>
+      <c r="B38" t="s">
+        <v>129</v>
+      </c>
+      <c r="C38" t="s">
+        <v>130</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E38" t="s">
+        <v>138</v>
+      </c>
+      <c r="F38">
+        <v>5.5</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>2</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>2</v>
+      </c>
+      <c r="K38">
+        <v>2</v>
+      </c>
+      <c r="L38">
+        <v>2</v>
+      </c>
+      <c r="M38">
+        <v>5</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38" t="s">
+        <v>122</v>
+      </c>
+      <c r="P38">
+        <v>57</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>117</v>
+      </c>
+      <c r="R38" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>115</v>
+      </c>
+      <c r="B39" t="s">
+        <v>133</v>
+      </c>
+      <c r="C39" t="s">
+        <v>134</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E39" t="s">
+        <v>139</v>
+      </c>
+      <c r="F39">
+        <v>6.5</v>
+      </c>
+      <c r="G39">
+        <v>4</v>
+      </c>
+      <c r="H39">
+        <v>3</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>4</v>
+      </c>
+      <c r="K39">
+        <v>3</v>
+      </c>
+      <c r="L39">
+        <v>2</v>
+      </c>
+      <c r="M39">
+        <v>4</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39" t="s">
+        <v>122</v>
+      </c>
+      <c r="P39">
+        <v>57</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>116</v>
+      </c>
+      <c r="R39" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>141</v>
+      </c>
+      <c r="B40" t="s">
+        <v>142</v>
+      </c>
+      <c r="C40" t="s">
+        <v>143</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E40" t="s">
+        <v>49</v>
+      </c>
+      <c r="F40">
+        <v>7</v>
+      </c>
+      <c r="G40">
+        <v>4</v>
+      </c>
+      <c r="H40">
+        <v>2</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>3</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <v>2</v>
+      </c>
+      <c r="M40">
+        <v>3</v>
+      </c>
+      <c r="N40">
+        <v>3</v>
+      </c>
+      <c r="O40" t="s">
         <v>145</v>
       </c>
-      <c r="P32">
+      <c r="P40">
         <v>56</v>
       </c>
-      <c r="Q32" t="s">
+      <c r="Q40" t="s">
+        <v>140</v>
+      </c>
+      <c r="R40" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>147</v>
+      </c>
+      <c r="B41" t="s">
+        <v>148</v>
+      </c>
+      <c r="C41" t="s">
+        <v>149</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E41" t="s">
+        <v>150</v>
+      </c>
+      <c r="F41">
+        <v>5.4</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>5</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>3</v>
+      </c>
+      <c r="M41">
+        <v>4</v>
+      </c>
+      <c r="N41">
+        <v>2</v>
+      </c>
+      <c r="O41" t="s">
+        <v>145</v>
+      </c>
+      <c r="P41">
+        <v>56</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>146</v>
+      </c>
+      <c r="R41" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>155</v>
+      </c>
+      <c r="B42" t="s">
+        <v>159</v>
+      </c>
+      <c r="C42" t="s">
+        <v>160</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E42" t="s">
+        <v>163</v>
+      </c>
+      <c r="F42">
+        <v>4.5</v>
+      </c>
+      <c r="G42">
+        <v>3</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>2</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>3</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>3</v>
+      </c>
+      <c r="N42">
+        <v>2</v>
+      </c>
+      <c r="O42" t="s">
+        <v>145</v>
+      </c>
+      <c r="P42">
+        <v>56</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>151</v>
+      </c>
+      <c r="R42" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>156</v>
+      </c>
+      <c r="B43" t="s">
+        <v>148</v>
+      </c>
+      <c r="C43" t="s">
+        <v>149</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E43" t="s">
+        <v>164</v>
+      </c>
+      <c r="F43">
+        <v>5</v>
+      </c>
+      <c r="G43">
+        <v>4</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>3</v>
+      </c>
+      <c r="K43">
+        <v>3</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <v>3</v>
+      </c>
+      <c r="O43" t="s">
+        <v>145</v>
+      </c>
+      <c r="P43">
+        <v>56</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>152</v>
+      </c>
+      <c r="R43" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>157</v>
+      </c>
+      <c r="B44" t="s">
+        <v>148</v>
+      </c>
+      <c r="C44" t="s">
+        <v>149</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E44" t="s">
+        <v>165</v>
+      </c>
+      <c r="F44">
+        <v>3.5</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>4</v>
+      </c>
+      <c r="J44">
+        <v>3</v>
+      </c>
+      <c r="K44">
+        <v>4</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44" t="s">
+        <v>145</v>
+      </c>
+      <c r="P44">
+        <v>56</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>153</v>
+      </c>
+      <c r="R44" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>158</v>
+      </c>
+      <c r="B45" t="s">
+        <v>159</v>
+      </c>
+      <c r="C45" t="s">
+        <v>160</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E45" t="s">
+        <v>166</v>
+      </c>
+      <c r="F45">
+        <v>4.2</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>3</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>5</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45" t="s">
+        <v>145</v>
+      </c>
+      <c r="P45">
+        <v>56</v>
+      </c>
+      <c r="Q45" t="s">
         <v>154</v>
       </c>
-      <c r="R32" t="s">
+      <c r="R45" t="s">
         <v>195</v>
       </c>
     </row>
@@ -2813,8 +3707,8 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="D9 D17 D26" twoDigitTextYear="1"/>
-    <ignoredError sqref="D14:D15 D18 D19:D20 D24" numberStoredAsText="1"/>
+    <ignoredError sqref="D22 D30 D39" twoDigitTextYear="1"/>
+    <ignoredError sqref="D27:D28 D31 D32:D33 D37" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/beers.xlsx
+++ b/data/beers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jim.parr/repos/beerpbl/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08DAC625-8EF2-2645-A16E-74F37053E288}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0B462A-A646-B24F-A790-EC36BCC85119}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15840" yWindow="500" windowWidth="22560" windowHeight="21100" xr2:uid="{47864DF4-71D9-4F42-A5D2-AF6EFB75F361}"/>
+    <workbookView xWindow="6240" yWindow="500" windowWidth="22560" windowHeight="17500" xr2:uid="{47864DF4-71D9-4F42-A5D2-AF6EFB75F361}"/>
   </bookViews>
   <sheets>
     <sheet name="beers" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="256">
   <si>
     <t>beer</t>
   </si>
@@ -636,9 +636,6 @@
     <t>Melbourne</t>
   </si>
   <si>
-    <t>default.png</t>
-  </si>
-  <si>
     <t>Old Mate</t>
   </si>
   <si>
@@ -792,10 +789,19 @@
     <t>Plum sour ale</t>
   </si>
   <si>
-    <t>https://www.beer52.com/</t>
-  </si>
-  <si>
     <t>Hop-Nation-The-Heart-pale-ale.png</t>
+  </si>
+  <si>
+    <t>https://www.beer52.com/shop/product/kaiju-beer/cthluhu-on-the-moon-black-ipa/3482</t>
+  </si>
+  <si>
+    <t>Kaiju-Cthulhu-on-the-moon-black-IPA.png</t>
+  </si>
+  <si>
+    <t>https://www.beer52.com/shop/product/3-ravens-brewery/salted-caramel-shake/3474</t>
+  </si>
+  <si>
+    <t>3-Ravens-Salted-Caramel-Shake.png</t>
   </si>
 </sst>
 </file>
@@ -1157,8 +1163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58096622-42DE-4E43-A4CA-F3B7FB497972}">
   <dimension ref="A1:R45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" topLeftCell="Q2" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1241,10 +1247,10 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C2" t="s">
         <v>199</v>
@@ -1253,7 +1259,7 @@
         <v>137</v>
       </c>
       <c r="E2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F2">
         <v>4.2</v>
@@ -1289,27 +1295,27 @@
         <v>60</v>
       </c>
       <c r="Q2" t="s">
+        <v>235</v>
+      </c>
+      <c r="R2" t="s">
         <v>236</v>
-      </c>
-      <c r="R2" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C3" t="s">
         <v>199</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E3" t="s">
         <v>247</v>
-      </c>
-      <c r="E3" t="s">
-        <v>248</v>
       </c>
       <c r="F3">
         <v>4.8</v>
@@ -1345,18 +1351,18 @@
         <v>60</v>
       </c>
       <c r="Q3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="R3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C4" t="s">
         <v>199</v>
@@ -1365,7 +1371,7 @@
         <v>81</v>
       </c>
       <c r="E4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F4">
         <v>4.5</v>
@@ -1401,27 +1407,27 @@
         <v>60</v>
       </c>
       <c r="Q4" t="s">
+        <v>231</v>
+      </c>
+      <c r="R4" t="s">
         <v>232</v>
-      </c>
-      <c r="R4" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E5" t="s">
         <v>249</v>
-      </c>
-      <c r="E5" t="s">
-        <v>250</v>
       </c>
       <c r="F5">
         <v>5.5</v>
@@ -1457,18 +1463,18 @@
         <v>60</v>
       </c>
       <c r="Q5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="R5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C6" t="s">
         <v>199</v>
@@ -1513,18 +1519,18 @@
         <v>60</v>
       </c>
       <c r="Q6" t="s">
+        <v>227</v>
+      </c>
+      <c r="R6" t="s">
         <v>228</v>
-      </c>
-      <c r="R6" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>200</v>
+      </c>
+      <c r="B7" t="s">
         <v>201</v>
-      </c>
-      <c r="B7" t="s">
-        <v>202</v>
       </c>
       <c r="C7" t="s">
         <v>199</v>
@@ -1569,18 +1575,18 @@
         <v>60</v>
       </c>
       <c r="Q7" t="s">
+        <v>220</v>
+      </c>
+      <c r="R7" t="s">
         <v>221</v>
-      </c>
-      <c r="R7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>202</v>
+      </c>
+      <c r="B8" t="s">
         <v>203</v>
-      </c>
-      <c r="B8" t="s">
-        <v>204</v>
       </c>
       <c r="C8" t="s">
         <v>199</v>
@@ -1625,18 +1631,18 @@
         <v>60</v>
       </c>
       <c r="Q8" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="R8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>204</v>
+      </c>
+      <c r="B9" t="s">
         <v>205</v>
-      </c>
-      <c r="B9" t="s">
-        <v>206</v>
       </c>
       <c r="C9" t="s">
         <v>199</v>
@@ -1681,18 +1687,18 @@
         <v>60</v>
       </c>
       <c r="Q9" t="s">
+        <v>222</v>
+      </c>
+      <c r="R9" t="s">
         <v>223</v>
-      </c>
-      <c r="R9" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>206</v>
+      </c>
+      <c r="B10" t="s">
         <v>207</v>
-      </c>
-      <c r="B10" t="s">
-        <v>208</v>
       </c>
       <c r="C10" t="s">
         <v>199</v>
@@ -1701,7 +1707,7 @@
         <v>131</v>
       </c>
       <c r="E10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F10">
         <v>6</v>
@@ -1737,24 +1743,24 @@
         <v>60</v>
       </c>
       <c r="Q10" t="s">
+        <v>218</v>
+      </c>
+      <c r="R10" t="s">
         <v>219</v>
-      </c>
-      <c r="R10" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C11" t="s">
         <v>199</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E11" t="s">
         <v>150</v>
@@ -1793,18 +1799,18 @@
         <v>60</v>
       </c>
       <c r="Q11" t="s">
+        <v>224</v>
+      </c>
+      <c r="R11" t="s">
         <v>225</v>
-      </c>
-      <c r="R11" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C12" t="s">
         <v>199</v>
@@ -1813,7 +1819,7 @@
         <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F12">
         <v>6.5</v>
@@ -1849,18 +1855,18 @@
         <v>60</v>
       </c>
       <c r="Q12" t="s">
+        <v>216</v>
+      </c>
+      <c r="R12" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C13" t="s">
         <v>199</v>
@@ -1905,18 +1911,18 @@
         <v>60</v>
       </c>
       <c r="Q13" t="s">
-        <v>200</v>
-      </c>
-      <c r="R13" t="s">
+        <v>253</v>
+      </c>
+      <c r="R13" s="2" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C14" t="s">
         <v>199</v>
@@ -1925,7 +1931,7 @@
         <v>39</v>
       </c>
       <c r="E14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F14">
         <v>6</v>
@@ -1961,10 +1967,10 @@
         <v>60</v>
       </c>
       <c r="Q14" t="s">
-        <v>200</v>
-      </c>
-      <c r="R14" t="s">
-        <v>252</v>
+        <v>255</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">

--- a/data/beers.xlsx
+++ b/data/beers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jim.parr/repos/beerpbl/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0B462A-A646-B24F-A790-EC36BCC85119}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8B2A3B-F05F-2B43-95E0-AB15796E2235}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6240" yWindow="500" windowWidth="22560" windowHeight="17500" xr2:uid="{47864DF4-71D9-4F42-A5D2-AF6EFB75F361}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{47864DF4-71D9-4F42-A5D2-AF6EFB75F361}"/>
   </bookViews>
   <sheets>
     <sheet name="beers" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="336">
   <si>
     <t>beer</t>
   </si>
@@ -802,6 +802,246 @@
   </si>
   <si>
     <t>3-Ravens-Salted-Caramel-Shake.png</t>
+  </si>
+  <si>
+    <t>DDH Jaipur IPA</t>
+  </si>
+  <si>
+    <t>Thornbridge</t>
+  </si>
+  <si>
+    <t>Derbyshire</t>
+  </si>
+  <si>
+    <t>DDH IPA</t>
+  </si>
+  <si>
+    <t>We ❤️ our breweries</t>
+  </si>
+  <si>
+    <t>Thornbridge-DDH-Jaipur-IPA.png</t>
+  </si>
+  <si>
+    <t>https://www.beer52.com/shop/product/thornbridge/ddh-jaipur-ipa/3577</t>
+  </si>
+  <si>
+    <t>Dry-Hopped Wheat</t>
+  </si>
+  <si>
+    <t>Free Assembly</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Dry-hopped wheat beer</t>
+  </si>
+  <si>
+    <t>Free-Assembly-Dry-Hopped-Wheat.png</t>
+  </si>
+  <si>
+    <t>https://www.beer52.com/shop/product/free-assembly/dry-hopped-wheat/3569</t>
+  </si>
+  <si>
+    <t>Electric Boogaloo</t>
+  </si>
+  <si>
+    <t>Tiny Rebel</t>
+  </si>
+  <si>
+    <t>Newport</t>
+  </si>
+  <si>
+    <t>Passionfruit lil NEIPA</t>
+  </si>
+  <si>
+    <t>Tiny-Rebel-Electric-Boogaloo-Passionfruit-NEIPA.png</t>
+  </si>
+  <si>
+    <t>https://www.beer52.com/shop/product/tiny-rebel/electric-boogaloo/3554</t>
+  </si>
+  <si>
+    <t>Table Beer</t>
+  </si>
+  <si>
+    <t>Wild Card Brewery</t>
+  </si>
+  <si>
+    <t>Walthamstow</t>
+  </si>
+  <si>
+    <t>Table beer</t>
+  </si>
+  <si>
+    <t>Wild-Card-Table-beer.png</t>
+  </si>
+  <si>
+    <t>https://www.beer52.com/shop/product/wild-card-brewery/table-beer/3553</t>
+  </si>
+  <si>
+    <t>Althea</t>
+  </si>
+  <si>
+    <t>Galway Bay</t>
+  </si>
+  <si>
+    <t>Galway</t>
+  </si>
+  <si>
+    <t>GalwayBay_AltheaPaleAle.png</t>
+  </si>
+  <si>
+    <t>https://www.beer52.com/shop/product/galway-bay/althea/2711</t>
+  </si>
+  <si>
+    <t>Revival</t>
+  </si>
+  <si>
+    <t>Moor</t>
+  </si>
+  <si>
+    <t>Bristol</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Pale bitter</t>
+  </si>
+  <si>
+    <t>Moor-Beer-Revival-pale-bitter.png</t>
+  </si>
+  <si>
+    <t>https://www.beer52.com/shop/product/moor-beer-company/revival-pale-bitter/3572</t>
+  </si>
+  <si>
+    <t>Bonneville</t>
+  </si>
+  <si>
+    <t>Salt</t>
+  </si>
+  <si>
+    <t>Saltair</t>
+  </si>
+  <si>
+    <t>Salt-Bonneville-hazy-zesty-pale-ale.png</t>
+  </si>
+  <si>
+    <t>https://www.beer52.com/shop/product/salt/bonneville-nepa/3555</t>
+  </si>
+  <si>
+    <t>Surface Waves</t>
+  </si>
+  <si>
+    <t>Siren Craft Brew</t>
+  </si>
+  <si>
+    <t>Wokingham</t>
+  </si>
+  <si>
+    <t>Siren-craft-brew-Surface-Waves-California-Pale-Ale.png</t>
+  </si>
+  <si>
+    <t>https://www.beer52.com/shop/product/siren-craft-brew/surface-waves/3583</t>
+  </si>
+  <si>
+    <t>Hollow Days</t>
+  </si>
+  <si>
+    <t>Harbour Brewing Co.</t>
+  </si>
+  <si>
+    <t>Cornwall</t>
+  </si>
+  <si>
+    <t>4-8</t>
+  </si>
+  <si>
+    <t>Hazelnut stout</t>
+  </si>
+  <si>
+    <t>Harbour-Hollow-Days-Hazelnut-Stout.png</t>
+  </si>
+  <si>
+    <t>https://www.beer52.com/shop/product/harbour/hollow-days-stout/3571</t>
+  </si>
+  <si>
+    <t>Stout</t>
+  </si>
+  <si>
+    <t>Moor_Stout.png</t>
+  </si>
+  <si>
+    <t>https://www.beer52.com/shop/product/moor-beer-company/stout/1310</t>
+  </si>
+  <si>
+    <t>Chai Cutter</t>
+  </si>
+  <si>
+    <t>Tempest</t>
+  </si>
+  <si>
+    <t>Tweedbank</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Tempest-Chai-Cutter-Milk-Stout.png</t>
+  </si>
+  <si>
+    <t>https://www.beer52.com/shop/product/tempest/chai-cutter-milk-stout/3575</t>
+  </si>
+  <si>
+    <t>Midnight Maverick</t>
+  </si>
+  <si>
+    <t>Nitro oatmeal milk stout</t>
+  </si>
+  <si>
+    <t>Siren-craft-brew-Nitro-Midnight-Maverick-Oatmeal-Milk-Stout.png</t>
+  </si>
+  <si>
+    <t>https://www.beer52.com/shop/product/siren-craft-brew/midnight-mavrick/3574</t>
+  </si>
+  <si>
+    <t>Free-Assembly-Weizenbock.png</t>
+  </si>
+  <si>
+    <t>https://www.beer52.com/shop/product/free-assembly/weizenbock/3570</t>
+  </si>
+  <si>
+    <t>Thornbridge-Astryd-juicy-pale-ale.png</t>
+  </si>
+  <si>
+    <t>https://www.beer52.com/shop/product/thornbridge/astryd-pale-ale/3576</t>
+  </si>
+  <si>
+    <t>Wild-Beer-Co-In-The-Mix-Session-IPA.png</t>
+  </si>
+  <si>
+    <t>https://www.beer52.com/shop/product/wild-beer-co/in-the-mix-sipa/3598</t>
+  </si>
+  <si>
+    <t>Weizenbock</t>
+  </si>
+  <si>
+    <t>Astryd</t>
+  </si>
+  <si>
+    <t>Juicy pale</t>
+  </si>
+  <si>
+    <t>In The Mix</t>
+  </si>
+  <si>
+    <t>Wild Beer Co.</t>
+  </si>
+  <si>
+    <t>Somerset</t>
+  </si>
+  <si>
+    <t>Mixed-ferment session IPA</t>
   </si>
 </sst>
 </file>
@@ -1161,10 +1401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58096622-42DE-4E43-A4CA-F3B7FB497972}">
-  <dimension ref="A1:R45"/>
+  <dimension ref="A1:R60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q2" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1185,7 +1425,7 @@
     <col min="14" max="14" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="21.83203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="51.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="57.33203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="108.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1247,84 +1487,84 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="B2" t="s">
-        <v>201</v>
+        <v>257</v>
       </c>
       <c r="C2" t="s">
-        <v>199</v>
+        <v>258</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>137</v>
+        <v>246</v>
       </c>
       <c r="E2" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="F2">
-        <v>4.2</v>
+        <v>5.9</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L2">
         <v>2</v>
       </c>
       <c r="M2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O2" t="s">
-        <v>199</v>
+        <v>260</v>
       </c>
       <c r="P2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q2" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="R2" t="s">
-        <v>236</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="B3" t="s">
-        <v>203</v>
+        <v>264</v>
       </c>
       <c r="C3" t="s">
-        <v>199</v>
+        <v>265</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>246</v>
+        <v>162</v>
       </c>
       <c r="E3" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="F3">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1333,63 +1573,63 @@
         <v>3</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N3">
         <v>1</v>
       </c>
       <c r="O3" t="s">
-        <v>199</v>
+        <v>260</v>
       </c>
       <c r="P3">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q3" t="s">
-        <v>234</v>
+        <v>267</v>
       </c>
       <c r="R3" t="s">
-        <v>233</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="B4" t="s">
-        <v>201</v>
+        <v>270</v>
       </c>
       <c r="C4" t="s">
-        <v>199</v>
+        <v>271</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E4" t="s">
-        <v>250</v>
+        <v>272</v>
       </c>
       <c r="F4">
         <v>4.5</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L4">
         <v>3</v>
@@ -1398,54 +1638,54 @@
         <v>4</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" t="s">
-        <v>199</v>
+        <v>260</v>
       </c>
       <c r="P4">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q4" t="s">
-        <v>231</v>
+        <v>273</v>
       </c>
       <c r="R4" t="s">
-        <v>232</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>238</v>
+        <v>275</v>
       </c>
       <c r="B5" t="s">
-        <v>242</v>
+        <v>276</v>
       </c>
       <c r="C5" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>248</v>
+        <v>77</v>
       </c>
       <c r="E5" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c r="F5">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -1457,42 +1697,42 @@
         <v>2</v>
       </c>
       <c r="O5" t="s">
-        <v>199</v>
+        <v>260</v>
       </c>
       <c r="P5">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q5" t="s">
-        <v>230</v>
+        <v>279</v>
       </c>
       <c r="R5" t="s">
-        <v>229</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>237</v>
+        <v>281</v>
       </c>
       <c r="B6" t="s">
-        <v>243</v>
+        <v>282</v>
       </c>
       <c r="C6" t="s">
-        <v>199</v>
+        <v>283</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>164</v>
       </c>
       <c r="F6">
-        <v>6.1</v>
+        <v>4.8</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1501,104 +1741,104 @@
         <v>3</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>2</v>
       </c>
       <c r="N6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O6" t="s">
-        <v>199</v>
+        <v>260</v>
       </c>
       <c r="P6">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q6" t="s">
-        <v>227</v>
+        <v>284</v>
       </c>
       <c r="R6" t="s">
-        <v>228</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>200</v>
+        <v>286</v>
       </c>
       <c r="B7" t="s">
-        <v>201</v>
+        <v>287</v>
       </c>
       <c r="C7" t="s">
-        <v>199</v>
+        <v>288</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>102</v>
+        <v>289</v>
       </c>
       <c r="E7" t="s">
-        <v>164</v>
+        <v>290</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N7">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="O7" t="s">
-        <v>199</v>
+        <v>260</v>
       </c>
       <c r="P7">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q7" t="s">
-        <v>220</v>
+        <v>291</v>
       </c>
       <c r="R7" t="s">
-        <v>221</v>
+        <v>292</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>202</v>
+        <v>293</v>
       </c>
       <c r="B8" t="s">
-        <v>203</v>
+        <v>294</v>
       </c>
       <c r="C8" t="s">
-        <v>199</v>
+        <v>295</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>162</v>
+        <v>102</v>
       </c>
       <c r="E8" t="s">
         <v>164</v>
       </c>
       <c r="F8">
-        <v>4.5999999999999996</v>
+        <v>4</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -1610,10 +1850,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L8">
         <v>1</v>
@@ -1625,98 +1865,98 @@
         <v>2</v>
       </c>
       <c r="O8" t="s">
-        <v>199</v>
+        <v>260</v>
       </c>
       <c r="P8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q8" t="s">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="R8" t="s">
-        <v>226</v>
+        <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>204</v>
+        <v>298</v>
       </c>
       <c r="B9" t="s">
-        <v>205</v>
+        <v>299</v>
       </c>
       <c r="C9" t="s">
-        <v>199</v>
+        <v>300</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>81</v>
+        <v>248</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="F9">
-        <v>6.7</v>
+        <v>5.5</v>
       </c>
       <c r="G9">
         <v>4</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O9" t="s">
-        <v>199</v>
+        <v>260</v>
       </c>
       <c r="P9">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q9" t="s">
-        <v>222</v>
+        <v>301</v>
       </c>
       <c r="R9" t="s">
-        <v>223</v>
+        <v>302</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>206</v>
+        <v>303</v>
       </c>
       <c r="B10" t="s">
-        <v>207</v>
+        <v>304</v>
       </c>
       <c r="C10" t="s">
-        <v>199</v>
+        <v>305</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>131</v>
+        <v>306</v>
       </c>
       <c r="E10" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
       <c r="F10">
-        <v>6</v>
+        <v>4.8</v>
       </c>
       <c r="G10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1728,42 +1968,42 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N10">
         <v>2</v>
       </c>
       <c r="O10" t="s">
-        <v>199</v>
+        <v>260</v>
       </c>
       <c r="P10">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q10" t="s">
-        <v>218</v>
+        <v>308</v>
       </c>
       <c r="R10" t="s">
-        <v>219</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>209</v>
+        <v>310</v>
       </c>
       <c r="B11" t="s">
-        <v>203</v>
+        <v>287</v>
       </c>
       <c r="C11" t="s">
-        <v>199</v>
+        <v>288</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>210</v>
+        <v>289</v>
       </c>
       <c r="E11" t="s">
-        <v>150</v>
+        <v>310</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -1784,48 +2024,48 @@
         <v>1</v>
       </c>
       <c r="L11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N11">
         <v>2</v>
       </c>
       <c r="O11" t="s">
-        <v>199</v>
+        <v>260</v>
       </c>
       <c r="P11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q11" t="s">
-        <v>224</v>
+        <v>311</v>
       </c>
       <c r="R11" t="s">
-        <v>225</v>
+        <v>312</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>211</v>
+        <v>313</v>
       </c>
       <c r="B12" t="s">
-        <v>201</v>
+        <v>314</v>
       </c>
       <c r="C12" t="s">
-        <v>199</v>
+        <v>315</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>18</v>
+        <v>316</v>
       </c>
       <c r="E12" t="s">
-        <v>212</v>
+        <v>92</v>
       </c>
       <c r="F12">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
         <v>4</v>
@@ -1834,54 +2074,54 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M12">
         <v>4</v>
       </c>
       <c r="N12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O12" t="s">
-        <v>199</v>
+        <v>260</v>
       </c>
       <c r="P12">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q12" t="s">
-        <v>216</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>217</v>
+        <v>317</v>
+      </c>
+      <c r="R12" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>213</v>
+        <v>319</v>
       </c>
       <c r="B13" t="s">
-        <v>205</v>
+        <v>299</v>
       </c>
       <c r="C13" t="s">
-        <v>199</v>
+        <v>300</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E13" t="s">
-        <v>57</v>
+        <v>320</v>
       </c>
       <c r="F13">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="G13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H13">
         <v>4</v>
@@ -1890,169 +2130,169 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O13" t="s">
-        <v>199</v>
+        <v>260</v>
       </c>
       <c r="P13">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q13" t="s">
-        <v>253</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>252</v>
+        <v>321</v>
+      </c>
+      <c r="R13" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>214</v>
+        <v>329</v>
       </c>
       <c r="B14" t="s">
-        <v>207</v>
+        <v>264</v>
       </c>
       <c r="C14" t="s">
-        <v>199</v>
+        <v>265</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>39</v>
+        <v>210</v>
       </c>
       <c r="E14" t="s">
-        <v>215</v>
+        <v>329</v>
       </c>
       <c r="F14">
-        <v>6</v>
+        <v>7.2</v>
       </c>
       <c r="G14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N14">
         <v>1</v>
       </c>
       <c r="O14" t="s">
-        <v>199</v>
+        <v>260</v>
       </c>
       <c r="P14">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q14" t="s">
-        <v>255</v>
-      </c>
-      <c r="R14" s="2" t="s">
-        <v>254</v>
+        <v>323</v>
+      </c>
+      <c r="R14" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>330</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>257</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>258</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>18</v>
+        <v>246</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>331</v>
       </c>
       <c r="F15">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K15">
         <v>3</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N15">
         <v>2</v>
       </c>
       <c r="O15" t="s">
-        <v>20</v>
+        <v>260</v>
       </c>
       <c r="P15">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Q15" t="s">
-        <v>21</v>
-      </c>
-      <c r="R15" s="2" t="s">
-        <v>168</v>
+        <v>325</v>
+      </c>
+      <c r="R15" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>332</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>333</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>334</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="E16" t="s">
-        <v>27</v>
+        <v>335</v>
       </c>
       <c r="F16">
-        <v>4.8</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16">
         <v>2</v>
@@ -2064,219 +2304,219 @@
         <v>3</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M16">
         <v>1</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O16" t="s">
-        <v>20</v>
+        <v>260</v>
       </c>
       <c r="P16">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Q16" t="s">
-        <v>28</v>
+        <v>327</v>
       </c>
       <c r="R16" t="s">
-        <v>169</v>
+        <v>328</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>241</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>201</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>199</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>18</v>
+        <v>137</v>
       </c>
       <c r="E17" t="s">
-        <v>34</v>
+        <v>245</v>
       </c>
       <c r="F17">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="G17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J17">
         <v>2</v>
       </c>
       <c r="K17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O17" t="s">
-        <v>20</v>
+        <v>199</v>
       </c>
       <c r="P17">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q17" t="s">
-        <v>30</v>
+        <v>235</v>
       </c>
       <c r="R17" t="s">
-        <v>170</v>
+        <v>236</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>240</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>203</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>199</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>39</v>
+        <v>246</v>
       </c>
       <c r="E18" t="s">
-        <v>40</v>
+        <v>247</v>
       </c>
       <c r="F18">
         <v>4.8</v>
       </c>
       <c r="G18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K18">
         <v>2</v>
       </c>
       <c r="L18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O18" t="s">
-        <v>20</v>
+        <v>199</v>
       </c>
       <c r="P18">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q18" t="s">
-        <v>35</v>
+        <v>234</v>
       </c>
       <c r="R18" t="s">
-        <v>171</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>239</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>201</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>199</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>250</v>
       </c>
       <c r="F19">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="G19">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O19" t="s">
-        <v>20</v>
+        <v>199</v>
       </c>
       <c r="P19">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q19" t="s">
-        <v>41</v>
+        <v>231</v>
       </c>
       <c r="R19" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>238</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>242</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>244</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="E20" t="s">
-        <v>49</v>
+        <v>249</v>
       </c>
       <c r="F20">
         <v>5.5</v>
       </c>
       <c r="G20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -2294,42 +2534,42 @@
         <v>3</v>
       </c>
       <c r="N20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O20" t="s">
-        <v>20</v>
+        <v>199</v>
       </c>
       <c r="P20">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q20" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="R20" t="s">
-        <v>173</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>237</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>243</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>199</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="E21" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F21">
-        <v>4.4000000000000004</v>
+        <v>6.1</v>
       </c>
       <c r="G21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -2338,166 +2578,166 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O21" t="s">
-        <v>20</v>
+        <v>199</v>
       </c>
       <c r="P21">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" t="s">
-        <v>50</v>
+        <v>227</v>
       </c>
       <c r="R21" t="s">
-        <v>174</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>201</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>199</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="E22" t="s">
-        <v>57</v>
+        <v>164</v>
       </c>
       <c r="F22">
-        <v>6.8</v>
+        <v>5</v>
       </c>
       <c r="G22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="M22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N22">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="O22" t="s">
-        <v>20</v>
+        <v>199</v>
       </c>
       <c r="P22">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q22" t="s">
-        <v>54</v>
+        <v>220</v>
       </c>
       <c r="R22" t="s">
-        <v>175</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>202</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>203</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>199</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="E23" t="s">
+        <v>164</v>
+      </c>
+      <c r="F23">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G23">
+        <v>4</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>4</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>4</v>
+      </c>
+      <c r="N23">
+        <v>2</v>
+      </c>
+      <c r="O23" t="s">
+        <v>199</v>
+      </c>
+      <c r="P23">
         <v>60</v>
       </c>
-      <c r="F23">
-        <v>7</v>
-      </c>
-      <c r="G23">
-        <v>5</v>
-      </c>
-      <c r="H23">
-        <v>3</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
-      <c r="K23">
-        <v>4</v>
-      </c>
-      <c r="L23">
-        <v>4</v>
-      </c>
-      <c r="M23">
-        <v>5</v>
-      </c>
-      <c r="N23">
-        <v>3</v>
-      </c>
-      <c r="O23" t="s">
-        <v>20</v>
-      </c>
-      <c r="P23">
-        <v>59</v>
-      </c>
       <c r="Q23" t="s">
-        <v>58</v>
+        <v>251</v>
       </c>
       <c r="R23" t="s">
-        <v>176</v>
+        <v>226</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>204</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>205</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>199</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="E24" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="F24">
-        <v>4.0999999999999996</v>
+        <v>6.7</v>
       </c>
       <c r="G24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H24">
         <v>3</v>
@@ -2506,51 +2746,51 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N24">
         <v>4</v>
       </c>
       <c r="O24" t="s">
-        <v>20</v>
+        <v>199</v>
       </c>
       <c r="P24">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q24" t="s">
-        <v>64</v>
+        <v>222</v>
       </c>
       <c r="R24" t="s">
-        <v>177</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>66</v>
+        <v>206</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>207</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
+        <v>199</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="E25" t="s">
-        <v>67</v>
+        <v>208</v>
       </c>
       <c r="F25">
-        <v>7.8</v>
+        <v>6</v>
       </c>
       <c r="G25">
         <v>5</v>
@@ -2562,13 +2802,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M25">
         <v>4</v>
@@ -2577,322 +2817,322 @@
         <v>2</v>
       </c>
       <c r="O25" t="s">
-        <v>20</v>
+        <v>199</v>
       </c>
       <c r="P25">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q25" t="s">
-        <v>65</v>
+        <v>218</v>
       </c>
       <c r="R25" t="s">
-        <v>178</v>
+        <v>219</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>68</v>
+        <v>209</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
+        <v>203</v>
       </c>
       <c r="C26" t="s">
-        <v>70</v>
+        <v>199</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>18</v>
+        <v>210</v>
       </c>
       <c r="E26" t="s">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="F26">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="G26">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K26">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L26">
         <v>3</v>
       </c>
       <c r="M26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O26" t="s">
-        <v>20</v>
+        <v>199</v>
       </c>
       <c r="P26">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q26" t="s">
-        <v>71</v>
+        <v>224</v>
       </c>
       <c r="R26" t="s">
-        <v>179</v>
+        <v>225</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>74</v>
+        <v>211</v>
       </c>
       <c r="B27" t="s">
-        <v>75</v>
+        <v>201</v>
       </c>
       <c r="C27" t="s">
-        <v>76</v>
+        <v>199</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>212</v>
       </c>
       <c r="F27">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="G27">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K27">
         <v>3</v>
       </c>
       <c r="L27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O27" t="s">
-        <v>73</v>
+        <v>199</v>
       </c>
       <c r="P27">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q27" t="s">
-        <v>72</v>
-      </c>
-      <c r="R27" t="s">
-        <v>180</v>
+        <v>216</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>79</v>
+        <v>213</v>
       </c>
       <c r="B28" t="s">
-        <v>80</v>
+        <v>205</v>
       </c>
       <c r="C28" t="s">
-        <v>82</v>
+        <v>199</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E28" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="F28">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="G28">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K28">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O28" t="s">
-        <v>73</v>
+        <v>199</v>
       </c>
       <c r="P28">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q28" t="s">
-        <v>78</v>
-      </c>
-      <c r="R28" t="s">
-        <v>181</v>
+        <v>253</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>83</v>
+        <v>214</v>
       </c>
       <c r="B29" t="s">
-        <v>84</v>
+        <v>207</v>
       </c>
       <c r="C29" t="s">
-        <v>85</v>
+        <v>199</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="E29" t="s">
-        <v>87</v>
+        <v>215</v>
       </c>
       <c r="F29">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="G29">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="H29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L29">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M29">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N29">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O29" t="s">
-        <v>73</v>
+        <v>199</v>
       </c>
       <c r="P29">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q29" t="s">
-        <v>88</v>
-      </c>
-      <c r="R29" t="s">
-        <v>182</v>
+        <v>255</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C30" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="E30" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="F30">
-        <v>5.7</v>
+        <v>5</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N30">
         <v>2</v>
       </c>
       <c r="O30" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="P30">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q30" t="s">
-        <v>89</v>
-      </c>
-      <c r="R30" t="s">
-        <v>183</v>
+        <v>21</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="B31" t="s">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="C31" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="E31" t="s">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="F31">
-        <v>5.5</v>
+        <v>4.8</v>
       </c>
       <c r="G31">
         <v>1</v>
       </c>
       <c r="H31">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I31">
         <v>2</v>
@@ -2901,272 +3141,272 @@
         <v>1</v>
       </c>
       <c r="K31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L31">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M31">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O31" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="P31">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q31" t="s">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="R31" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="E32" t="s">
-        <v>103</v>
+        <v>34</v>
       </c>
       <c r="F32">
         <v>6.5</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M32">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O32" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="P32">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q32" t="s">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="R32" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>106</v>
+        <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="C33" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>102</v>
+        <v>39</v>
       </c>
       <c r="E33" t="s">
-        <v>109</v>
+        <v>40</v>
       </c>
       <c r="F33">
-        <v>8.6</v>
+        <v>4.8</v>
       </c>
       <c r="G33">
         <v>4</v>
       </c>
       <c r="H33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33">
         <v>2</v>
       </c>
       <c r="K33">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N33">
         <v>3</v>
       </c>
       <c r="O33" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="P33">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q33" t="s">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="R33" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="B34" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="C34" t="s">
-        <v>124</v>
+        <v>29</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>125</v>
+        <v>18</v>
       </c>
       <c r="E34" t="s">
-        <v>110</v>
+        <v>43</v>
       </c>
       <c r="F34">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="G34">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H34">
         <v>1</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L34">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M34">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O34" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
       <c r="P34">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q34" t="s">
-        <v>121</v>
+        <v>41</v>
       </c>
       <c r="R34" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="B35" t="s">
-        <v>126</v>
+        <v>46</v>
       </c>
       <c r="C35" t="s">
-        <v>127</v>
+        <v>47</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="E35" t="s">
-        <v>128</v>
+        <v>49</v>
       </c>
       <c r="F35">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="G35">
         <v>3</v>
       </c>
       <c r="H35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O35" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
       <c r="P35">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q35" t="s">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="R35" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="B36" t="s">
-        <v>129</v>
+        <v>52</v>
       </c>
       <c r="C36" t="s">
-        <v>130</v>
+        <v>53</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>131</v>
+        <v>39</v>
       </c>
       <c r="E36" t="s">
-        <v>132</v>
+        <v>40</v>
       </c>
       <c r="F36">
-        <v>6.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="G36">
         <v>4</v>
@@ -3175,293 +3415,293 @@
         <v>1</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K36">
         <v>4</v>
       </c>
       <c r="L36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M36">
         <v>4</v>
       </c>
       <c r="N36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O36" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
       <c r="P36">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q36" t="s">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="R36" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>113</v>
+        <v>55</v>
       </c>
       <c r="B37" t="s">
-        <v>133</v>
+        <v>32</v>
       </c>
       <c r="C37" t="s">
-        <v>134</v>
+        <v>33</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>135</v>
+        <v>56</v>
       </c>
       <c r="E37" t="s">
-        <v>136</v>
+        <v>57</v>
       </c>
       <c r="F37">
-        <v>4</v>
+        <v>6.8</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H37">
         <v>2</v>
       </c>
       <c r="I37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K37">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M37">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N37">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O37" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
       <c r="P37">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q37" t="s">
-        <v>118</v>
+        <v>54</v>
       </c>
       <c r="R37" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>114</v>
+        <v>59</v>
       </c>
       <c r="B38" t="s">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="C38" t="s">
-        <v>130</v>
+        <v>29</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>137</v>
+        <v>18</v>
       </c>
       <c r="E38" t="s">
-        <v>138</v>
+        <v>60</v>
       </c>
       <c r="F38">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K38">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L38">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M38">
         <v>5</v>
       </c>
       <c r="N38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O38" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
       <c r="P38">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q38" t="s">
-        <v>117</v>
+        <v>58</v>
       </c>
       <c r="R38" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="B39" t="s">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="C39" t="s">
-        <v>134</v>
+        <v>53</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="E39" t="s">
-        <v>139</v>
+        <v>63</v>
       </c>
       <c r="F39">
-        <v>6.5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H39">
         <v>3</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N39">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O39" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
       <c r="P39">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q39" t="s">
-        <v>116</v>
+        <v>64</v>
       </c>
       <c r="R39" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>141</v>
+        <v>66</v>
       </c>
       <c r="B40" t="s">
-        <v>142</v>
+        <v>46</v>
       </c>
       <c r="C40" t="s">
-        <v>143</v>
+        <v>47</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>144</v>
+        <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F40">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="G40">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O40" t="s">
-        <v>145</v>
+        <v>20</v>
       </c>
       <c r="P40">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="Q40" t="s">
-        <v>140</v>
+        <v>65</v>
       </c>
       <c r="R40" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>147</v>
+        <v>68</v>
       </c>
       <c r="B41" t="s">
-        <v>148</v>
+        <v>69</v>
       </c>
       <c r="C41" t="s">
-        <v>149</v>
+        <v>70</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="E41" t="s">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="F41">
-        <v>5.4</v>
+        <v>4.7</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H41">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L41">
         <v>3</v>
@@ -3470,242 +3710,1082 @@
         <v>4</v>
       </c>
       <c r="N41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O41" t="s">
-        <v>145</v>
+        <v>20</v>
       </c>
       <c r="P41">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="Q41" t="s">
-        <v>146</v>
+        <v>71</v>
       </c>
       <c r="R41" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>155</v>
+        <v>74</v>
       </c>
       <c r="B42" t="s">
-        <v>159</v>
+        <v>75</v>
       </c>
       <c r="C42" t="s">
-        <v>160</v>
+        <v>76</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>161</v>
+        <v>77</v>
       </c>
       <c r="E42" t="s">
-        <v>163</v>
+        <v>43</v>
       </c>
       <c r="F42">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="G42">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K42">
         <v>3</v>
       </c>
       <c r="L42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M42">
         <v>3</v>
       </c>
       <c r="N42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O42" t="s">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="P42">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q42" t="s">
-        <v>151</v>
+        <v>72</v>
       </c>
       <c r="R42" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>156</v>
+        <v>79</v>
       </c>
       <c r="B43" t="s">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="C43" t="s">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="E43" t="s">
-        <v>164</v>
+        <v>49</v>
       </c>
       <c r="F43">
+        <v>6.8</v>
+      </c>
+      <c r="G43">
         <v>5</v>
       </c>
-      <c r="G43">
-        <v>4</v>
-      </c>
       <c r="H43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M43">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O43" t="s">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="P43">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q43" t="s">
-        <v>152</v>
+        <v>78</v>
       </c>
       <c r="R43" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>157</v>
+        <v>83</v>
       </c>
       <c r="B44" t="s">
-        <v>148</v>
+        <v>84</v>
       </c>
       <c r="C44" t="s">
-        <v>149</v>
+        <v>85</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>137</v>
+        <v>86</v>
       </c>
       <c r="E44" t="s">
-        <v>165</v>
+        <v>87</v>
       </c>
       <c r="F44">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I44">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N44">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O44" t="s">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="P44">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q44" t="s">
-        <v>153</v>
+        <v>88</v>
       </c>
       <c r="R44" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>158</v>
+        <v>90</v>
       </c>
       <c r="B45" t="s">
-        <v>159</v>
+        <v>32</v>
       </c>
       <c r="C45" t="s">
-        <v>160</v>
+        <v>33</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>162</v>
+        <v>91</v>
       </c>
       <c r="E45" t="s">
-        <v>166</v>
+        <v>92</v>
       </c>
       <c r="F45">
-        <v>4.2</v>
+        <v>5.7</v>
       </c>
       <c r="G45">
         <v>1</v>
       </c>
       <c r="H45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L45">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M45">
         <v>5</v>
       </c>
       <c r="N45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O45" t="s">
+        <v>73</v>
+      </c>
+      <c r="P45">
+        <v>58</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>89</v>
+      </c>
+      <c r="R45" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>94</v>
+      </c>
+      <c r="B46" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" t="s">
+        <v>96</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E46" t="s">
+        <v>98</v>
+      </c>
+      <c r="F46">
+        <v>5.5</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>4</v>
+      </c>
+      <c r="I46">
+        <v>2</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>4</v>
+      </c>
+      <c r="L46">
+        <v>5</v>
+      </c>
+      <c r="M46">
+        <v>4</v>
+      </c>
+      <c r="N46">
+        <v>2</v>
+      </c>
+      <c r="O46" t="s">
+        <v>73</v>
+      </c>
+      <c r="P46">
+        <v>58</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>93</v>
+      </c>
+      <c r="R46" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" t="s">
+        <v>101</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E47" t="s">
+        <v>103</v>
+      </c>
+      <c r="F47">
+        <v>6.5</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>3</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <v>3</v>
+      </c>
+      <c r="M47">
+        <v>5</v>
+      </c>
+      <c r="N47">
+        <v>2</v>
+      </c>
+      <c r="O47" t="s">
+        <v>73</v>
+      </c>
+      <c r="P47">
+        <v>58</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>104</v>
+      </c>
+      <c r="R47" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>106</v>
+      </c>
+      <c r="B48" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" t="s">
+        <v>108</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E48" t="s">
+        <v>109</v>
+      </c>
+      <c r="F48">
+        <v>8.6</v>
+      </c>
+      <c r="G48">
+        <v>4</v>
+      </c>
+      <c r="H48">
+        <v>3</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>2</v>
+      </c>
+      <c r="K48">
+        <v>4</v>
+      </c>
+      <c r="L48">
+        <v>3</v>
+      </c>
+      <c r="M48">
+        <v>3</v>
+      </c>
+      <c r="N48">
+        <v>3</v>
+      </c>
+      <c r="O48" t="s">
+        <v>73</v>
+      </c>
+      <c r="P48">
+        <v>58</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>105</v>
+      </c>
+      <c r="R48" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>110</v>
+      </c>
+      <c r="B49" t="s">
+        <v>123</v>
+      </c>
+      <c r="C49" t="s">
+        <v>124</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E49" t="s">
+        <v>110</v>
+      </c>
+      <c r="F49">
+        <v>5.3</v>
+      </c>
+      <c r="G49">
+        <v>2</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>4</v>
+      </c>
+      <c r="K49">
+        <v>4</v>
+      </c>
+      <c r="L49">
+        <v>4</v>
+      </c>
+      <c r="M49">
+        <v>4</v>
+      </c>
+      <c r="N49">
+        <v>2</v>
+      </c>
+      <c r="O49" t="s">
+        <v>122</v>
+      </c>
+      <c r="P49">
+        <v>57</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>121</v>
+      </c>
+      <c r="R49" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>111</v>
+      </c>
+      <c r="B50" t="s">
+        <v>126</v>
+      </c>
+      <c r="C50" t="s">
+        <v>127</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E50" t="s">
+        <v>128</v>
+      </c>
+      <c r="F50">
+        <v>5.3</v>
+      </c>
+      <c r="G50">
+        <v>3</v>
+      </c>
+      <c r="H50">
+        <v>3</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>2</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
+      </c>
+      <c r="M50">
+        <v>4</v>
+      </c>
+      <c r="N50">
+        <v>2</v>
+      </c>
+      <c r="O50" t="s">
+        <v>122</v>
+      </c>
+      <c r="P50">
+        <v>57</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>120</v>
+      </c>
+      <c r="R50" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>112</v>
+      </c>
+      <c r="B51" t="s">
+        <v>129</v>
+      </c>
+      <c r="C51" t="s">
+        <v>130</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E51" t="s">
+        <v>132</v>
+      </c>
+      <c r="F51">
+        <v>6.5</v>
+      </c>
+      <c r="G51">
+        <v>4</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>3</v>
+      </c>
+      <c r="K51">
+        <v>4</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+      <c r="M51">
+        <v>4</v>
+      </c>
+      <c r="N51">
+        <v>2</v>
+      </c>
+      <c r="O51" t="s">
+        <v>122</v>
+      </c>
+      <c r="P51">
+        <v>57</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>119</v>
+      </c>
+      <c r="R51" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>113</v>
+      </c>
+      <c r="B52" t="s">
+        <v>133</v>
+      </c>
+      <c r="C52" t="s">
+        <v>134</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E52" t="s">
+        <v>136</v>
+      </c>
+      <c r="F52">
+        <v>4</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>2</v>
+      </c>
+      <c r="I52">
+        <v>3</v>
+      </c>
+      <c r="J52">
+        <v>2</v>
+      </c>
+      <c r="K52">
+        <v>4</v>
+      </c>
+      <c r="L52">
+        <v>2</v>
+      </c>
+      <c r="M52">
+        <v>5</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52" t="s">
+        <v>122</v>
+      </c>
+      <c r="P52">
+        <v>57</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>118</v>
+      </c>
+      <c r="R52" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>114</v>
+      </c>
+      <c r="B53" t="s">
+        <v>129</v>
+      </c>
+      <c r="C53" t="s">
+        <v>130</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E53" t="s">
+        <v>138</v>
+      </c>
+      <c r="F53">
+        <v>5.5</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>2</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>2</v>
+      </c>
+      <c r="K53">
+        <v>2</v>
+      </c>
+      <c r="L53">
+        <v>2</v>
+      </c>
+      <c r="M53">
+        <v>5</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53" t="s">
+        <v>122</v>
+      </c>
+      <c r="P53">
+        <v>57</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>117</v>
+      </c>
+      <c r="R53" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>115</v>
+      </c>
+      <c r="B54" t="s">
+        <v>133</v>
+      </c>
+      <c r="C54" t="s">
+        <v>134</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E54" t="s">
+        <v>139</v>
+      </c>
+      <c r="F54">
+        <v>6.5</v>
+      </c>
+      <c r="G54">
+        <v>4</v>
+      </c>
+      <c r="H54">
+        <v>3</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>4</v>
+      </c>
+      <c r="K54">
+        <v>3</v>
+      </c>
+      <c r="L54">
+        <v>2</v>
+      </c>
+      <c r="M54">
+        <v>4</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54" t="s">
+        <v>122</v>
+      </c>
+      <c r="P54">
+        <v>57</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>116</v>
+      </c>
+      <c r="R54" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>141</v>
+      </c>
+      <c r="B55" t="s">
+        <v>142</v>
+      </c>
+      <c r="C55" t="s">
+        <v>143</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E55" t="s">
+        <v>49</v>
+      </c>
+      <c r="F55">
+        <v>7</v>
+      </c>
+      <c r="G55">
+        <v>4</v>
+      </c>
+      <c r="H55">
+        <v>2</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>3</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <v>2</v>
+      </c>
+      <c r="M55">
+        <v>3</v>
+      </c>
+      <c r="N55">
+        <v>3</v>
+      </c>
+      <c r="O55" t="s">
         <v>145</v>
       </c>
-      <c r="P45">
+      <c r="P55">
         <v>56</v>
       </c>
-      <c r="Q45" t="s">
+      <c r="Q55" t="s">
+        <v>140</v>
+      </c>
+      <c r="R55" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>147</v>
+      </c>
+      <c r="B56" t="s">
+        <v>148</v>
+      </c>
+      <c r="C56" t="s">
+        <v>149</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E56" t="s">
+        <v>150</v>
+      </c>
+      <c r="F56">
+        <v>5.4</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>5</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>3</v>
+      </c>
+      <c r="M56">
+        <v>4</v>
+      </c>
+      <c r="N56">
+        <v>2</v>
+      </c>
+      <c r="O56" t="s">
+        <v>145</v>
+      </c>
+      <c r="P56">
+        <v>56</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>146</v>
+      </c>
+      <c r="R56" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>155</v>
+      </c>
+      <c r="B57" t="s">
+        <v>159</v>
+      </c>
+      <c r="C57" t="s">
+        <v>160</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E57" t="s">
+        <v>163</v>
+      </c>
+      <c r="F57">
+        <v>4.5</v>
+      </c>
+      <c r="G57">
+        <v>3</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>2</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>3</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="M57">
+        <v>3</v>
+      </c>
+      <c r="N57">
+        <v>2</v>
+      </c>
+      <c r="O57" t="s">
+        <v>145</v>
+      </c>
+      <c r="P57">
+        <v>56</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>151</v>
+      </c>
+      <c r="R57" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>156</v>
+      </c>
+      <c r="B58" t="s">
+        <v>148</v>
+      </c>
+      <c r="C58" t="s">
+        <v>149</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E58" t="s">
+        <v>164</v>
+      </c>
+      <c r="F58">
+        <v>5</v>
+      </c>
+      <c r="G58">
+        <v>4</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>3</v>
+      </c>
+      <c r="K58">
+        <v>3</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="N58">
+        <v>3</v>
+      </c>
+      <c r="O58" t="s">
+        <v>145</v>
+      </c>
+      <c r="P58">
+        <v>56</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>152</v>
+      </c>
+      <c r="R58" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>157</v>
+      </c>
+      <c r="B59" t="s">
+        <v>148</v>
+      </c>
+      <c r="C59" t="s">
+        <v>149</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E59" t="s">
+        <v>165</v>
+      </c>
+      <c r="F59">
+        <v>3.5</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>4</v>
+      </c>
+      <c r="J59">
+        <v>3</v>
+      </c>
+      <c r="K59">
+        <v>4</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59" t="s">
+        <v>145</v>
+      </c>
+      <c r="P59">
+        <v>56</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>153</v>
+      </c>
+      <c r="R59" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>158</v>
+      </c>
+      <c r="B60" t="s">
+        <v>159</v>
+      </c>
+      <c r="C60" t="s">
+        <v>160</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E60" t="s">
+        <v>166</v>
+      </c>
+      <c r="F60">
+        <v>4.2</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>3</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
+      <c r="M60">
+        <v>5</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60" t="s">
+        <v>145</v>
+      </c>
+      <c r="P60">
+        <v>56</v>
+      </c>
+      <c r="Q60" t="s">
         <v>154</v>
       </c>
-      <c r="R45" t="s">
+      <c r="R60" t="s">
         <v>195</v>
       </c>
     </row>
@@ -3713,8 +4793,8 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="D22 D30 D39" twoDigitTextYear="1"/>
-    <ignoredError sqref="D27:D28 D31 D32:D33 D37" numberStoredAsText="1"/>
+    <ignoredError sqref="D37 D45 D54" twoDigitTextYear="1"/>
+    <ignoredError sqref="D42:D43 D46 D47:D48 D52" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/beers.xlsx
+++ b/data/beers.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jim.parr/repos/beerpbl/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8B2A3B-F05F-2B43-95E0-AB15796E2235}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F955121B-1E9B-094B-9B8F-8201DE7A2FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{47864DF4-71D9-4F42-A5D2-AF6EFB75F361}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="536">
   <si>
     <t>beer</t>
   </si>
@@ -1042,6 +1042,606 @@
   </si>
   <si>
     <t>Mixed-ferment session IPA</t>
+  </si>
+  <si>
+    <t>Roomies-Munich-Kellerbier-1-.png</t>
+  </si>
+  <si>
+    <t>https://www.beer52.com/shop/product/roomies/munich-kellerbier/3747</t>
+  </si>
+  <si>
+    <t>https://www.beer52.com/shop/product/albrecht/czech-pale/3738</t>
+  </si>
+  <si>
+    <t>Albrecht-Czech-Pale-Ale.png</t>
+  </si>
+  <si>
+    <t>https://www.beer52.com/shop/product/moor-beer-company/distortion-session-ipa/3744</t>
+  </si>
+  <si>
+    <t>Moor-Beer-Distortion-Session-IPA.png</t>
+  </si>
+  <si>
+    <t>https://www.beer52.com/shop/product/stiegl/columbus-1492/3773</t>
+  </si>
+  <si>
+    <t>Stiegl-Columbus-1492-ple-ale.png</t>
+  </si>
+  <si>
+    <t>https://www.beer52.com/shop/product/fierce-beer/hop-squad/3742</t>
+  </si>
+  <si>
+    <t>Fierce-Hop-Squad-Hoppy-IPA.png</t>
+  </si>
+  <si>
+    <t>Seven-Bro7hers-Sabro-IPA.png</t>
+  </si>
+  <si>
+    <t>https://www.beer52.com/shop/product/seven-bro7hers-brewery/sabro-ipa1/3737</t>
+  </si>
+  <si>
+    <t>Cervecera-Peninsula-Hop-On-American-pale-ale.png</t>
+  </si>
+  <si>
+    <t>https://www.beer52.com/shop/product/cervecera-peninsula/hop-on-american-pale-ale/3746</t>
+  </si>
+  <si>
+    <t>Two-Tribes-Mariachi-Mexican-lager.png</t>
+  </si>
+  <si>
+    <t>https://www.beer52.com/shop/product/two-tribes/mariachi-mexican-lager/3530</t>
+  </si>
+  <si>
+    <t>Bohemia-Regent-Dark-Lager-1-.png</t>
+  </si>
+  <si>
+    <t>https://www.beer52.com/shop/product/bohemia-regent/premium-dark/3741</t>
+  </si>
+  <si>
+    <t>Orbit-Dead-Wax-London-Porter.png</t>
+  </si>
+  <si>
+    <t>https://www.beer52.com/shop/product/orbit-beers/dead-wax-london-porter/3745</t>
+  </si>
+  <si>
+    <t>Albrecht-Morion-Czech-Dry-Stout.png</t>
+  </si>
+  <si>
+    <t>https://www.beer52.com/shop/product/albrecht/irish-morion-stout/3772</t>
+  </si>
+  <si>
+    <t>Rascals-Big-Hop-Red-Lively-Zesty-Ale.png</t>
+  </si>
+  <si>
+    <t>https://www.beer52.com/shop/product/rascals-brewing-company/big-red-hop/3224</t>
+  </si>
+  <si>
+    <t>https://www.beer52.com/shop/product/to-l/house-of-pale/2827</t>
+  </si>
+  <si>
+    <t>To-Ol-House-of-pale-ale.png</t>
+  </si>
+  <si>
+    <t>Gipsy-Hill-Beachballer-California-Cali-IPA.png</t>
+  </si>
+  <si>
+    <t>https://www.beer52.com/shop/product/gipsy-hill/beachballer-cali-hazy-ipa/3743</t>
+  </si>
+  <si>
+    <t>Alphabet-Brewing-Co-Coffee-Shop-of-Horrors-plant-based-white-breakfast-stout.png</t>
+  </si>
+  <si>
+    <t>https://www.beer52.com/shop/product/alphabet-brewing-co/coffee-shop-of-horrors-vegan-flat-white-stout/3740</t>
+  </si>
+  <si>
+    <t>Beer Cities</t>
+  </si>
+  <si>
+    <t>Your next favourite beer</t>
+  </si>
+  <si>
+    <t>Buro-Brauerei-Helles.png</t>
+  </si>
+  <si>
+    <t>https://www.beer52.com/shop/product/buro-brauerei/helles/3578</t>
+  </si>
+  <si>
+    <t>The-White-Hag-Phantom-Hazy-IPA.png</t>
+  </si>
+  <si>
+    <t>https://www.beer52.com/shop/product/the-white-hag/phantom-hazy-ipa/2682</t>
+  </si>
+  <si>
+    <t>JW-Lees-Founders-premium-Chestnut-ale.png</t>
+  </si>
+  <si>
+    <t>https://www.beer52.com/shop/product/jw-lees-and-co/founder-s-best-bitter/3594</t>
+  </si>
+  <si>
+    <t>Fallen-Brewing-Lever-DDH-Pale.png</t>
+  </si>
+  <si>
+    <t>https://www.beer52.com/shop/product/fallen/lever-ddh-pale/3593</t>
+  </si>
+  <si>
+    <t>Fyne-Aes-Sunrise-Bliss-Grapefruit-session-IPA.png</t>
+  </si>
+  <si>
+    <t>https://www.beer52.com/shop/product/fyne-ales/sunrise-bliss-ipa/3581</t>
+  </si>
+  <si>
+    <t>BBNo-07-Witbier-Orange-Vanilla.png</t>
+  </si>
+  <si>
+    <t>https://www.beer52.com/shop/product/bbno/07-witbier-orange-vanilla/3587</t>
+  </si>
+  <si>
+    <t>Buxton-Brewery-Nargil-Coconut-Pastry-Stout.png</t>
+  </si>
+  <si>
+    <t>https://www.beer52.com/shop/product/buxton-brewery/nargil-bounty-pastry-stout/3591</t>
+  </si>
+  <si>
+    <t>Bristol-Beer-Factory-Espresso-Martini-Milk-Stuout.png</t>
+  </si>
+  <si>
+    <t>https://www.beer52.com/shop/product/bristol-beer-factory/espresso-martini/3590</t>
+  </si>
+  <si>
+    <t>Brew-York-Rhubarbra-Streisand-Milkshake-pale.png</t>
+  </si>
+  <si>
+    <t>https://www.beer52.com/shop/product/brew-york/rhubarbra-streisand-milkshake/3589</t>
+  </si>
+  <si>
+    <t>Fyne-Aes-Nevermore-Cold-Brew-coffee-porter.png</t>
+  </si>
+  <si>
+    <t>https://www.beer52.com/shop/product/fyne-ales/nevermore-coldbrew-porter/3582</t>
+  </si>
+  <si>
+    <t>Buxton-Brewery-Impatience-Kveik-Oat-IPA.png</t>
+  </si>
+  <si>
+    <t>https://www.beer52.com/shop/product/buxton-brewery/impatience-kveik-oat-ipa/3592</t>
+  </si>
+  <si>
+    <t>Vocation-Monomanis-Pale-ale.png</t>
+  </si>
+  <si>
+    <t>https://www.beer52.com/shop/product/vocation/monomania-431/3636</t>
+  </si>
+  <si>
+    <t>The-White-Hag-Johnnys-Off-License-Malafemmena-DIPA.png</t>
+  </si>
+  <si>
+    <t>https://www.beer52.com/shop/product/the-white-hag/malafemmena-dipa/3596</t>
+  </si>
+  <si>
+    <t>BBNo-05-IPA-East-Coast.png</t>
+  </si>
+  <si>
+    <t>https://www.beer52.com/shop/product/bbno/05-ipa-east-coast/3588</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Steenbrugge-Blond-Abbey.png</t>
+  </si>
+  <si>
+    <t>https://www.beer52.com/shop/product/steenbrugge/blonde-steenbrugge/3706</t>
+  </si>
+  <si>
+    <t>Lekker-Belgian-IPA.png</t>
+  </si>
+  <si>
+    <t>https://www.beer52.com/shop/product/brouwerij-lekker/belgian-ipa/3695</t>
+  </si>
+  <si>
+    <t>Avaans-Belgian-Pilsner.png</t>
+  </si>
+  <si>
+    <t>https://www.beer52.com/shop/product/avaans/belgian-pilsner/3698</t>
+  </si>
+  <si>
+    <t>Lekker-Belgian-Witbier.png</t>
+  </si>
+  <si>
+    <t>https://www.beer52.com/shop/product/brouwerij-lekker/orange-coriander-witbier/3696</t>
+  </si>
+  <si>
+    <t>Avaans-Belgian-Kveik-IPA.png</t>
+  </si>
+  <si>
+    <t>https://www.beer52.com/shop/case/mixed-beers-8-pack/3091</t>
+  </si>
+  <si>
+    <t>Brasserie-de-la-Senne-Zinnebir-Brussels-People-Ale.png</t>
+  </si>
+  <si>
+    <t>https://www.beer52.com/shop/product/brasserie-de-la-senne/zinnerbir-belgian-pale/3701</t>
+  </si>
+  <si>
+    <t>Alvinne-Omega-Flemish-Sour-Ale.png</t>
+  </si>
+  <si>
+    <t>https://www.beer52.com/shop/product/alvinne/single-hop-hallertau-blanc/3708</t>
+  </si>
+  <si>
+    <t>Avaans-Belgian-Pale-Ale.png</t>
+  </si>
+  <si>
+    <t>https://www.beer52.com/shop/product/avaans/belgian-pale-ale/3697</t>
+  </si>
+  <si>
+    <t>Brouwerij-Haacht-Tongerlo-Bruin-Belgian-Abbey.png</t>
+  </si>
+  <si>
+    <t>https://www.beer52.com/shop/product/haacht/tongerlo-bruin/3704</t>
+  </si>
+  <si>
+    <t>Brasserie-de-la-Senne-Stouterik-Brussels-Stout.png</t>
+  </si>
+  <si>
+    <t>https://www.beer52.com/shop/product/brasserie-de-la-senne/stouterik-belgian-stout/3702</t>
+  </si>
+  <si>
+    <t>Avaans-Belgian-Dubbel.png</t>
+  </si>
+  <si>
+    <t>https://www.beer52.com/shop/product/avaans/dubbel/3700</t>
+  </si>
+  <si>
+    <t>Rodenbach-Fruitage.png</t>
+  </si>
+  <si>
+    <t>https://www.beer52.com/shop/product/rodenbach/fruitage-rodenbach/3707</t>
+  </si>
+  <si>
+    <t>Lekker-Belgian-Saison.png</t>
+  </si>
+  <si>
+    <t>https://www.beer52.com/shop/product/brouwerij-lekker/saison/3694</t>
+  </si>
+  <si>
+    <t>Helles</t>
+  </si>
+  <si>
+    <t>Phantom</t>
+  </si>
+  <si>
+    <t>Founder's</t>
+  </si>
+  <si>
+    <t>J.W. Lees</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Premium bitter</t>
+  </si>
+  <si>
+    <t>Lever</t>
+  </si>
+  <si>
+    <t>Fallen Brewing Co.</t>
+  </si>
+  <si>
+    <t>DDH pale</t>
+  </si>
+  <si>
+    <t>Stirling</t>
+  </si>
+  <si>
+    <t>Sunrise Bliss</t>
+  </si>
+  <si>
+    <t>Fyne Ales</t>
+  </si>
+  <si>
+    <t>Argyll</t>
+  </si>
+  <si>
+    <t>Grapefruit session IPA</t>
+  </si>
+  <si>
+    <t>07 Witbier - Orange &amp; Vanilla</t>
+  </si>
+  <si>
+    <t>BBNo.</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Witbier</t>
+  </si>
+  <si>
+    <t>Nargil</t>
+  </si>
+  <si>
+    <t>Coconut pastry stout</t>
+  </si>
+  <si>
+    <t>Espresso Martini</t>
+  </si>
+  <si>
+    <t>Bristol Beer Factory</t>
+  </si>
+  <si>
+    <t>Rhubarbra Streisand</t>
+  </si>
+  <si>
+    <t>Brew York</t>
+  </si>
+  <si>
+    <t>York</t>
+  </si>
+  <si>
+    <t>Rhubarb milkshake pale</t>
+  </si>
+  <si>
+    <t>Nevermore</t>
+  </si>
+  <si>
+    <t>Cold-brew coffee porter</t>
+  </si>
+  <si>
+    <t>Impatience</t>
+  </si>
+  <si>
+    <t>Kveik oat IPA</t>
+  </si>
+  <si>
+    <t>Monomania</t>
+  </si>
+  <si>
+    <t>Vocation</t>
+  </si>
+  <si>
+    <t>Hebden Bridge</t>
+  </si>
+  <si>
+    <t>Malafemmena</t>
+  </si>
+  <si>
+    <t>DIPA</t>
+  </si>
+  <si>
+    <t>05T India Pale Ale - East Coast</t>
+  </si>
+  <si>
+    <t>Steenbrugge Blond</t>
+  </si>
+  <si>
+    <t>Steenbrugge</t>
+  </si>
+  <si>
+    <t>Steenhuffel</t>
+  </si>
+  <si>
+    <t>Blond abbey</t>
+  </si>
+  <si>
+    <t>Belgian IPA</t>
+  </si>
+  <si>
+    <t>Brouwerij Lekker</t>
+  </si>
+  <si>
+    <t>Lochristi</t>
+  </si>
+  <si>
+    <t>Belgian Pilsner</t>
+  </si>
+  <si>
+    <t>Avaans</t>
+  </si>
+  <si>
+    <t>Kveik IPA</t>
+  </si>
+  <si>
+    <t>Zinnebir</t>
+  </si>
+  <si>
+    <t>Brasserie de la Senne</t>
+  </si>
+  <si>
+    <t>Brussels</t>
+  </si>
+  <si>
+    <t>Belgian pale ale</t>
+  </si>
+  <si>
+    <t>Omega</t>
+  </si>
+  <si>
+    <t>Brouwerij Alvinne</t>
+  </si>
+  <si>
+    <t>Zwevegem</t>
+  </si>
+  <si>
+    <t>Blond sour</t>
+  </si>
+  <si>
+    <t>Pale Ale</t>
+  </si>
+  <si>
+    <t>Tongerlo Bruin</t>
+  </si>
+  <si>
+    <t>Brouwerij Haacht</t>
+  </si>
+  <si>
+    <t>Aalter</t>
+  </si>
+  <si>
+    <t>Belgian Abbey beer</t>
+  </si>
+  <si>
+    <t>Stouterik</t>
+  </si>
+  <si>
+    <t>Brussels dry stout</t>
+  </si>
+  <si>
+    <t>Belgian Dubbel</t>
+  </si>
+  <si>
+    <t>Dubbel</t>
+  </si>
+  <si>
+    <t>Fruitage</t>
+  </si>
+  <si>
+    <t>Rodenbach</t>
+  </si>
+  <si>
+    <t>Roeselare</t>
+  </si>
+  <si>
+    <t>with ice</t>
+  </si>
+  <si>
+    <t>Flemish red-brown ale with red fruit</t>
+  </si>
+  <si>
+    <t>Belgian Saison</t>
+  </si>
+  <si>
+    <t>Saison</t>
+  </si>
+  <si>
+    <t>Munich Kellerbier</t>
+  </si>
+  <si>
+    <t>Roomies</t>
+  </si>
+  <si>
+    <t>Munich</t>
+  </si>
+  <si>
+    <t>Kellerbier</t>
+  </si>
+  <si>
+    <t>Czech Pale Ale</t>
+  </si>
+  <si>
+    <t>Albrecht</t>
+  </si>
+  <si>
+    <t>Distortion</t>
+  </si>
+  <si>
+    <t>Columbus-1492</t>
+  </si>
+  <si>
+    <t>Stiegl</t>
+  </si>
+  <si>
+    <t>Salzburg</t>
+  </si>
+  <si>
+    <t>Hop Squad</t>
+  </si>
+  <si>
+    <t>Sabro IPA</t>
+  </si>
+  <si>
+    <t>Seveb Bro7hers</t>
+  </si>
+  <si>
+    <t>5-10</t>
+  </si>
+  <si>
+    <t>Hop On</t>
+  </si>
+  <si>
+    <t>Madrid</t>
+  </si>
+  <si>
+    <t>American pale ale</t>
+  </si>
+  <si>
+    <t>Mariachi</t>
+  </si>
+  <si>
+    <t>Two Tribes</t>
+  </si>
+  <si>
+    <t>Mexican larger</t>
+  </si>
+  <si>
+    <t>Regent Premium Dark</t>
+  </si>
+  <si>
+    <t>Bohemia Regent</t>
+  </si>
+  <si>
+    <t>Dark export lager</t>
+  </si>
+  <si>
+    <t>Dead Wax</t>
+  </si>
+  <si>
+    <t>Orbit</t>
+  </si>
+  <si>
+    <t>London porter</t>
+  </si>
+  <si>
+    <t>Morion</t>
+  </si>
+  <si>
+    <t>Big Hop Red</t>
+  </si>
+  <si>
+    <t>Rascals Brewing Co.</t>
+  </si>
+  <si>
+    <t>Dublin</t>
+  </si>
+  <si>
+    <t>Red IPA</t>
+  </si>
+  <si>
+    <t>House of Pale</t>
+  </si>
+  <si>
+    <t>Copenhagen</t>
+  </si>
+  <si>
+    <t>To Øl</t>
+  </si>
+  <si>
+    <t>Beachballer</t>
+  </si>
+  <si>
+    <t>Gipsy Hill</t>
+  </si>
+  <si>
+    <t>California IPA</t>
+  </si>
+  <si>
+    <t>Coffee Shop of Horrors</t>
+  </si>
+  <si>
+    <t>Alphabet Brewing Co.</t>
+  </si>
+  <si>
+    <t>Plant-based white breakfast stout</t>
+  </si>
+  <si>
+    <t>Frýdlant</t>
+  </si>
+  <si>
+    <t>Třeboň</t>
+  </si>
+  <si>
+    <t>Cervecera Península</t>
   </si>
 </sst>
 </file>
@@ -1401,10 +2001,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58096622-42DE-4E43-A4CA-F3B7FB497972}">
-  <dimension ref="A1:R60"/>
+  <dimension ref="A1:R102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1413,7 +2013,7 @@
     <col min="2" max="2" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1"/>
@@ -1425,7 +2025,7 @@
     <col min="14" max="14" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="21.83203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="57.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="72.5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="108.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1487,149 +2087,149 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>256</v>
+        <v>530</v>
       </c>
       <c r="B2" t="s">
-        <v>257</v>
+        <v>531</v>
       </c>
       <c r="C2" t="s">
-        <v>258</v>
+        <v>427</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>246</v>
+        <v>81</v>
       </c>
       <c r="E2" t="s">
-        <v>259</v>
+        <v>532</v>
       </c>
       <c r="F2">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>4</v>
+      </c>
+      <c r="M2">
         <v>5</v>
       </c>
-      <c r="H2">
-        <v>2</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>3</v>
-      </c>
-      <c r="K2">
-        <v>4</v>
-      </c>
-      <c r="L2">
-        <v>2</v>
-      </c>
-      <c r="M2">
-        <v>2</v>
-      </c>
       <c r="N2">
         <v>3</v>
       </c>
       <c r="O2" t="s">
-        <v>260</v>
+        <v>366</v>
       </c>
       <c r="P2">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="Q2" t="s">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="R2" t="s">
-        <v>262</v>
+        <v>365</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>263</v>
+        <v>527</v>
       </c>
       <c r="B3" t="s">
-        <v>264</v>
+        <v>528</v>
       </c>
       <c r="C3" t="s">
-        <v>265</v>
+        <v>439</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>162</v>
+        <v>102</v>
       </c>
       <c r="E3" t="s">
-        <v>266</v>
+        <v>529</v>
       </c>
       <c r="F3">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L3">
         <v>2</v>
       </c>
       <c r="M3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O3" t="s">
-        <v>260</v>
+        <v>366</v>
       </c>
       <c r="P3">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="Q3" t="s">
-        <v>267</v>
+        <v>362</v>
       </c>
       <c r="R3" t="s">
-        <v>268</v>
+        <v>363</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>269</v>
+        <v>524</v>
       </c>
       <c r="B4" t="s">
-        <v>270</v>
+        <v>526</v>
       </c>
       <c r="C4" t="s">
-        <v>271</v>
+        <v>525</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E4" t="s">
-        <v>272</v>
+        <v>164</v>
       </c>
       <c r="F4">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>3</v>
@@ -1638,98 +2238,98 @@
         <v>4</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O4" t="s">
-        <v>260</v>
+        <v>366</v>
       </c>
       <c r="P4">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="Q4" t="s">
-        <v>273</v>
+        <v>361</v>
       </c>
       <c r="R4" t="s">
-        <v>274</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>275</v>
+        <v>520</v>
       </c>
       <c r="B5" t="s">
-        <v>276</v>
+        <v>521</v>
       </c>
       <c r="C5" t="s">
-        <v>277</v>
+        <v>522</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="E5" t="s">
-        <v>278</v>
+        <v>523</v>
       </c>
       <c r="F5">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>2</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M5">
         <v>3</v>
       </c>
       <c r="N5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O5" t="s">
-        <v>260</v>
+        <v>366</v>
       </c>
       <c r="P5">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="Q5" t="s">
-        <v>279</v>
+        <v>358</v>
       </c>
       <c r="R5" t="s">
-        <v>280</v>
+        <v>359</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>281</v>
+        <v>519</v>
       </c>
       <c r="B6" t="s">
-        <v>282</v>
+        <v>498</v>
       </c>
       <c r="C6" t="s">
-        <v>283</v>
+        <v>533</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="E6" t="s">
-        <v>164</v>
+        <v>310</v>
       </c>
       <c r="F6">
-        <v>4.8</v>
+        <v>6.5</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -1738,337 +2338,337 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O6" t="s">
-        <v>260</v>
+        <v>366</v>
       </c>
       <c r="P6">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="Q6" t="s">
-        <v>284</v>
+        <v>356</v>
       </c>
       <c r="R6" t="s">
-        <v>285</v>
+        <v>357</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>286</v>
+        <v>516</v>
       </c>
       <c r="B7" t="s">
-        <v>287</v>
+        <v>517</v>
       </c>
       <c r="C7" t="s">
-        <v>288</v>
+        <v>439</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>289</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>290</v>
+        <v>518</v>
       </c>
       <c r="F7">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O7" t="s">
-        <v>260</v>
+        <v>366</v>
       </c>
       <c r="P7">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="Q7" t="s">
-        <v>291</v>
+        <v>354</v>
       </c>
       <c r="R7" t="s">
-        <v>292</v>
+        <v>355</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>293</v>
+        <v>513</v>
       </c>
       <c r="B8" t="s">
-        <v>294</v>
+        <v>514</v>
       </c>
       <c r="C8" t="s">
-        <v>295</v>
+        <v>534</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>102</v>
       </c>
       <c r="E8" t="s">
-        <v>164</v>
+        <v>515</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N8">
         <v>2</v>
       </c>
       <c r="O8" t="s">
-        <v>260</v>
+        <v>366</v>
       </c>
       <c r="P8">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="Q8" t="s">
-        <v>296</v>
+        <v>352</v>
       </c>
       <c r="R8" t="s">
-        <v>297</v>
+        <v>353</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>298</v>
+        <v>510</v>
       </c>
       <c r="B9" t="s">
-        <v>299</v>
+        <v>511</v>
       </c>
       <c r="C9" t="s">
-        <v>300</v>
+        <v>439</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>248</v>
+        <v>162</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>512</v>
       </c>
       <c r="F9">
-        <v>5.5</v>
+        <v>4.7</v>
       </c>
       <c r="G9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O9" t="s">
-        <v>260</v>
+        <v>366</v>
       </c>
       <c r="P9">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="Q9" t="s">
-        <v>301</v>
+        <v>350</v>
       </c>
       <c r="R9" t="s">
-        <v>302</v>
+        <v>351</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>303</v>
+        <v>507</v>
       </c>
       <c r="B10" t="s">
-        <v>304</v>
+        <v>535</v>
       </c>
       <c r="C10" t="s">
-        <v>305</v>
+        <v>508</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>306</v>
+        <v>81</v>
       </c>
       <c r="E10" t="s">
-        <v>307</v>
+        <v>509</v>
       </c>
       <c r="F10">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M10">
         <v>3</v>
       </c>
       <c r="N10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O10" t="s">
-        <v>260</v>
+        <v>366</v>
       </c>
       <c r="P10">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="Q10" t="s">
-        <v>308</v>
+        <v>348</v>
       </c>
       <c r="R10" t="s">
-        <v>309</v>
+        <v>349</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>310</v>
+        <v>504</v>
       </c>
       <c r="B11" t="s">
-        <v>287</v>
+        <v>505</v>
       </c>
       <c r="C11" t="s">
-        <v>288</v>
+        <v>427</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>289</v>
+        <v>506</v>
       </c>
       <c r="E11" t="s">
-        <v>310</v>
+        <v>49</v>
       </c>
       <c r="F11">
         <v>5</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M11">
         <v>4</v>
       </c>
       <c r="N11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O11" t="s">
-        <v>260</v>
+        <v>366</v>
       </c>
       <c r="P11">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="Q11" t="s">
-        <v>311</v>
+        <v>346</v>
       </c>
       <c r="R11" t="s">
-        <v>312</v>
+        <v>347</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>313</v>
+        <v>503</v>
       </c>
       <c r="B12" t="s">
-        <v>314</v>
+        <v>100</v>
       </c>
       <c r="C12" t="s">
-        <v>315</v>
+        <v>101</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>316</v>
+        <v>86</v>
       </c>
       <c r="E12" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="F12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -2077,163 +2677,163 @@
         <v>1</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O12" t="s">
-        <v>260</v>
+        <v>366</v>
       </c>
       <c r="P12">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="Q12" t="s">
-        <v>317</v>
+        <v>345</v>
       </c>
       <c r="R12" t="s">
-        <v>318</v>
+        <v>344</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>319</v>
+        <v>500</v>
       </c>
       <c r="B13" t="s">
-        <v>299</v>
+        <v>501</v>
       </c>
       <c r="C13" t="s">
-        <v>300</v>
+        <v>502</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E13" t="s">
-        <v>320</v>
+        <v>164</v>
       </c>
       <c r="F13">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O13" t="s">
-        <v>260</v>
+        <v>366</v>
       </c>
       <c r="P13">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="Q13" t="s">
-        <v>321</v>
+        <v>343</v>
       </c>
       <c r="R13" t="s">
-        <v>322</v>
+        <v>342</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>329</v>
+        <v>499</v>
       </c>
       <c r="B14" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="C14" t="s">
-        <v>265</v>
+        <v>288</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>210</v>
+        <v>289</v>
       </c>
       <c r="E14" t="s">
-        <v>329</v>
+        <v>43</v>
       </c>
       <c r="F14">
-        <v>7.2</v>
+        <v>4.7</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O14" t="s">
-        <v>260</v>
+        <v>366</v>
       </c>
       <c r="P14">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="Q14" t="s">
-        <v>323</v>
+        <v>341</v>
       </c>
       <c r="R14" t="s">
-        <v>324</v>
+        <v>340</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>330</v>
+        <v>497</v>
       </c>
       <c r="B15" t="s">
-        <v>257</v>
+        <v>498</v>
       </c>
       <c r="C15" t="s">
-        <v>258</v>
+        <v>533</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>246</v>
+        <v>39</v>
       </c>
       <c r="E15" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="F15">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="G15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H15">
         <v>2</v>
@@ -2242,51 +2842,51 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M15">
         <v>3</v>
       </c>
       <c r="N15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O15" t="s">
-        <v>260</v>
+        <v>366</v>
       </c>
       <c r="P15">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="Q15" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="R15" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>332</v>
+        <v>493</v>
       </c>
       <c r="B16" t="s">
-        <v>333</v>
+        <v>494</v>
       </c>
       <c r="C16" t="s">
-        <v>334</v>
+        <v>495</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>81</v>
+        <v>246</v>
       </c>
       <c r="E16" t="s">
-        <v>335</v>
+        <v>496</v>
       </c>
       <c r="F16">
-        <v>4.4000000000000004</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -2295,72 +2895,72 @@
         <v>2</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>3</v>
       </c>
       <c r="M16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N16">
         <v>4</v>
       </c>
       <c r="O16" t="s">
-        <v>260</v>
+        <v>366</v>
       </c>
       <c r="P16">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="Q16" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="R16" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>241</v>
+        <v>491</v>
       </c>
       <c r="B17" t="s">
-        <v>201</v>
+        <v>464</v>
       </c>
       <c r="C17" t="s">
-        <v>199</v>
+        <v>465</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>137</v>
+        <v>210</v>
       </c>
       <c r="E17" t="s">
-        <v>245</v>
+        <v>492</v>
       </c>
       <c r="F17">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="G17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M17">
         <v>3</v>
@@ -2369,154 +2969,154 @@
         <v>2</v>
       </c>
       <c r="O17" t="s">
-        <v>199</v>
+        <v>396</v>
       </c>
       <c r="P17">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="Q17" t="s">
-        <v>235</v>
+        <v>421</v>
       </c>
       <c r="R17" t="s">
-        <v>236</v>
+        <v>422</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>240</v>
+        <v>486</v>
       </c>
       <c r="B18" t="s">
-        <v>203</v>
+        <v>487</v>
       </c>
       <c r="C18" t="s">
-        <v>199</v>
+        <v>488</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>246</v>
+        <v>489</v>
       </c>
       <c r="E18" t="s">
-        <v>247</v>
+        <v>490</v>
       </c>
       <c r="F18">
-        <v>4.8</v>
+        <v>3.9</v>
       </c>
       <c r="G18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M18">
         <v>3</v>
       </c>
       <c r="N18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" t="s">
-        <v>199</v>
+        <v>396</v>
       </c>
       <c r="P18">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="Q18" t="s">
-        <v>234</v>
+        <v>419</v>
       </c>
       <c r="R18" t="s">
-        <v>233</v>
+        <v>420</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>239</v>
+        <v>484</v>
       </c>
       <c r="B19" t="s">
-        <v>201</v>
+        <v>467</v>
       </c>
       <c r="C19" t="s">
-        <v>199</v>
+        <v>465</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E19" t="s">
-        <v>250</v>
+        <v>485</v>
       </c>
       <c r="F19">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I19">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M19">
         <v>4</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O19" t="s">
-        <v>199</v>
+        <v>396</v>
       </c>
       <c r="P19">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="Q19" t="s">
-        <v>231</v>
+        <v>417</v>
       </c>
       <c r="R19" t="s">
-        <v>232</v>
+        <v>418</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>238</v>
+        <v>482</v>
       </c>
       <c r="B20" t="s">
-        <v>242</v>
+        <v>470</v>
       </c>
       <c r="C20" t="s">
-        <v>244</v>
+        <v>471</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>248</v>
+        <v>81</v>
       </c>
       <c r="E20" t="s">
-        <v>249</v>
+        <v>483</v>
       </c>
       <c r="F20">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="G20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -2528,48 +3128,48 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>3</v>
       </c>
       <c r="N20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O20" t="s">
-        <v>199</v>
+        <v>396</v>
       </c>
       <c r="P20">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="Q20" t="s">
-        <v>230</v>
+        <v>415</v>
       </c>
       <c r="R20" t="s">
-        <v>229</v>
+        <v>416</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>237</v>
+        <v>478</v>
       </c>
       <c r="B21" t="s">
-        <v>243</v>
+        <v>479</v>
       </c>
       <c r="C21" t="s">
-        <v>199</v>
+        <v>480</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="E21" t="s">
-        <v>34</v>
+        <v>481</v>
       </c>
       <c r="F21">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
       <c r="G21">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -2578,119 +3178,119 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N21">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O21" t="s">
-        <v>199</v>
+        <v>396</v>
       </c>
       <c r="P21">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="Q21" t="s">
-        <v>227</v>
+        <v>413</v>
       </c>
       <c r="R21" t="s">
-        <v>228</v>
+        <v>414</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>200</v>
+        <v>477</v>
       </c>
       <c r="B22" t="s">
-        <v>201</v>
+        <v>467</v>
       </c>
       <c r="C22" t="s">
-        <v>199</v>
+        <v>465</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="E22" t="s">
         <v>164</v>
       </c>
       <c r="F22">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="G22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="M22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N22">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="O22" t="s">
-        <v>199</v>
+        <v>396</v>
       </c>
       <c r="P22">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="Q22" t="s">
-        <v>220</v>
+        <v>411</v>
       </c>
       <c r="R22" t="s">
-        <v>221</v>
+        <v>412</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>202</v>
+        <v>473</v>
       </c>
       <c r="B23" t="s">
-        <v>203</v>
+        <v>474</v>
       </c>
       <c r="C23" t="s">
-        <v>199</v>
+        <v>475</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>162</v>
+        <v>248</v>
       </c>
       <c r="E23" t="s">
-        <v>164</v>
+        <v>476</v>
       </c>
       <c r="F23">
-        <v>4.5999999999999996</v>
+        <v>6</v>
       </c>
       <c r="G23">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -2699,101 +3299,101 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O23" t="s">
-        <v>199</v>
+        <v>396</v>
       </c>
       <c r="P23">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="Q23" t="s">
-        <v>251</v>
+        <v>409</v>
       </c>
       <c r="R23" t="s">
-        <v>226</v>
+        <v>410</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>204</v>
+        <v>469</v>
       </c>
       <c r="B24" t="s">
-        <v>205</v>
+        <v>470</v>
       </c>
       <c r="C24" t="s">
-        <v>199</v>
+        <v>471</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E24" t="s">
-        <v>49</v>
+        <v>472</v>
       </c>
       <c r="F24">
-        <v>6.7</v>
+        <v>5.8</v>
       </c>
       <c r="G24">
         <v>4</v>
       </c>
       <c r="H24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M24">
         <v>3</v>
       </c>
       <c r="N24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O24" t="s">
-        <v>199</v>
+        <v>396</v>
       </c>
       <c r="P24">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="Q24" t="s">
-        <v>222</v>
+        <v>407</v>
       </c>
       <c r="R24" t="s">
-        <v>223</v>
+        <v>408</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>206</v>
+        <v>468</v>
       </c>
       <c r="B25" t="s">
-        <v>207</v>
+        <v>467</v>
       </c>
       <c r="C25" t="s">
-        <v>199</v>
+        <v>465</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="E25" t="s">
-        <v>208</v>
+        <v>49</v>
       </c>
       <c r="F25">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="G25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H25">
         <v>3</v>
@@ -2802,10 +3402,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
@@ -2814,166 +3414,166 @@
         <v>4</v>
       </c>
       <c r="N25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O25" t="s">
-        <v>199</v>
+        <v>396</v>
       </c>
       <c r="P25">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="Q25" t="s">
-        <v>218</v>
+        <v>405</v>
       </c>
       <c r="R25" t="s">
-        <v>219</v>
+        <v>406</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>209</v>
+        <v>440</v>
       </c>
       <c r="B26" t="s">
-        <v>203</v>
+        <v>464</v>
       </c>
       <c r="C26" t="s">
-        <v>199</v>
+        <v>465</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>210</v>
+        <v>77</v>
       </c>
       <c r="E26" t="s">
-        <v>150</v>
+        <v>440</v>
       </c>
       <c r="F26">
-        <v>5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="G26">
         <v>1</v>
       </c>
       <c r="H26">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>3</v>
       </c>
       <c r="M26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N26">
         <v>2</v>
       </c>
       <c r="O26" t="s">
-        <v>199</v>
+        <v>396</v>
       </c>
       <c r="P26">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="Q26" t="s">
-        <v>224</v>
+        <v>403</v>
       </c>
       <c r="R26" t="s">
-        <v>225</v>
+        <v>404</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>211</v>
+        <v>466</v>
       </c>
       <c r="B27" t="s">
-        <v>201</v>
+        <v>467</v>
       </c>
       <c r="C27" t="s">
-        <v>199</v>
+        <v>465</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="E27" t="s">
-        <v>212</v>
+        <v>247</v>
       </c>
       <c r="F27">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O27" t="s">
-        <v>199</v>
+        <v>396</v>
       </c>
       <c r="P27">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="Q27" t="s">
-        <v>216</v>
-      </c>
-      <c r="R27" s="2" t="s">
-        <v>217</v>
+        <v>401</v>
+      </c>
+      <c r="R27" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>213</v>
+        <v>463</v>
       </c>
       <c r="B28" t="s">
-        <v>205</v>
+        <v>464</v>
       </c>
       <c r="C28" t="s">
-        <v>199</v>
+        <v>465</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>81</v>
+        <v>162</v>
       </c>
       <c r="E28" t="s">
-        <v>57</v>
+        <v>463</v>
       </c>
       <c r="F28">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="G28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L28">
         <v>2</v>
@@ -2985,98 +3585,98 @@
         <v>3</v>
       </c>
       <c r="O28" t="s">
-        <v>199</v>
+        <v>396</v>
       </c>
       <c r="P28">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="Q28" t="s">
-        <v>253</v>
-      </c>
-      <c r="R28" s="2" t="s">
-        <v>252</v>
+        <v>399</v>
+      </c>
+      <c r="R28" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>214</v>
+        <v>459</v>
       </c>
       <c r="B29" t="s">
-        <v>207</v>
+        <v>460</v>
       </c>
       <c r="C29" t="s">
-        <v>199</v>
+        <v>461</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="E29" t="s">
-        <v>215</v>
+        <v>462</v>
       </c>
       <c r="F29">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="G29">
         <v>3</v>
       </c>
       <c r="H29">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="L29">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M29">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O29" t="s">
-        <v>199</v>
+        <v>396</v>
       </c>
       <c r="P29">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="Q29" t="s">
-        <v>255</v>
-      </c>
-      <c r="R29" s="2" t="s">
-        <v>254</v>
+        <v>397</v>
+      </c>
+      <c r="R29" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>458</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>438</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>439</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="E30" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="F30">
+        <v>6</v>
+      </c>
+      <c r="G30">
         <v>5</v>
       </c>
-      <c r="G30">
-        <v>2</v>
-      </c>
       <c r="H30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -3088,107 +3688,107 @@
         <v>3</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O30" t="s">
-        <v>20</v>
+        <v>367</v>
       </c>
       <c r="P30">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="Q30" t="s">
-        <v>21</v>
-      </c>
-      <c r="R30" s="2" t="s">
-        <v>168</v>
+        <v>394</v>
+      </c>
+      <c r="R30" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>22</v>
+        <v>456</v>
       </c>
       <c r="B31" t="s">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="C31" t="s">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>26</v>
+        <v>246</v>
       </c>
       <c r="E31" t="s">
-        <v>27</v>
+        <v>457</v>
       </c>
       <c r="F31">
-        <v>4.8</v>
+        <v>8.5</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O31" t="s">
-        <v>20</v>
+        <v>367</v>
       </c>
       <c r="P31">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="Q31" t="s">
-        <v>28</v>
+        <v>392</v>
       </c>
       <c r="R31" t="s">
-        <v>169</v>
+        <v>393</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>453</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>454</v>
       </c>
       <c r="C32" t="s">
-        <v>33</v>
+        <v>455</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="E32" t="s">
-        <v>34</v>
+        <v>164</v>
       </c>
       <c r="F32">
-        <v>6.5</v>
+        <v>5.7</v>
       </c>
       <c r="G32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32">
         <v>1</v>
@@ -3197,48 +3797,48 @@
         <v>2</v>
       </c>
       <c r="K32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O32" t="s">
-        <v>20</v>
+        <v>367</v>
       </c>
       <c r="P32">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="Q32" t="s">
-        <v>30</v>
+        <v>390</v>
       </c>
       <c r="R32" t="s">
-        <v>170</v>
+        <v>391</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>451</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="C33" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="E33" t="s">
-        <v>40</v>
+        <v>452</v>
       </c>
       <c r="F33">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="G33">
         <v>4</v>
@@ -3247,60 +3847,60 @@
         <v>2</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>2</v>
       </c>
       <c r="M33">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O33" t="s">
-        <v>20</v>
+        <v>367</v>
       </c>
       <c r="P33">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="Q33" t="s">
-        <v>35</v>
+        <v>388</v>
       </c>
       <c r="R33" t="s">
-        <v>171</v>
+        <v>389</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>449</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>434</v>
       </c>
       <c r="C34" t="s">
-        <v>29</v>
+        <v>435</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>450</v>
       </c>
       <c r="F34">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G34">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -3309,110 +3909,110 @@
         <v>1</v>
       </c>
       <c r="K34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M34">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N34">
         <v>3</v>
       </c>
       <c r="O34" t="s">
-        <v>20</v>
+        <v>367</v>
       </c>
       <c r="P34">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="Q34" t="s">
-        <v>41</v>
+        <v>386</v>
       </c>
       <c r="R34" t="s">
-        <v>172</v>
+        <v>387</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>445</v>
       </c>
       <c r="B35" t="s">
-        <v>46</v>
+        <v>446</v>
       </c>
       <c r="C35" t="s">
-        <v>47</v>
+        <v>447</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>48</v>
+        <v>316</v>
       </c>
       <c r="E35" t="s">
-        <v>49</v>
+        <v>448</v>
       </c>
       <c r="F35">
         <v>5.5</v>
       </c>
       <c r="G35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H35">
         <v>2</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L35">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M35">
         <v>3</v>
       </c>
       <c r="N35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O35" t="s">
-        <v>20</v>
+        <v>367</v>
       </c>
       <c r="P35">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="Q35" t="s">
-        <v>44</v>
+        <v>384</v>
       </c>
       <c r="R35" t="s">
-        <v>173</v>
+        <v>385</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>51</v>
+        <v>443</v>
       </c>
       <c r="B36" t="s">
-        <v>52</v>
+        <v>444</v>
       </c>
       <c r="C36" t="s">
-        <v>53</v>
+        <v>288</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>39</v>
+        <v>316</v>
       </c>
       <c r="E36" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="F36">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="G36">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -3421,107 +4021,107 @@
         <v>1</v>
       </c>
       <c r="K36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L36">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M36">
         <v>4</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O36" t="s">
-        <v>20</v>
+        <v>367</v>
       </c>
       <c r="P36">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="Q36" t="s">
-        <v>50</v>
+        <v>382</v>
       </c>
       <c r="R36" t="s">
-        <v>174</v>
+        <v>383</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>55</v>
+        <v>441</v>
       </c>
       <c r="B37" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="C37" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E37" t="s">
-        <v>57</v>
+        <v>442</v>
       </c>
       <c r="F37">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="G37">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37">
         <v>3</v>
       </c>
       <c r="L37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M37">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N37">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O37" t="s">
-        <v>20</v>
+        <v>367</v>
       </c>
       <c r="P37">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="Q37" t="s">
-        <v>54</v>
+        <v>380</v>
       </c>
       <c r="R37" t="s">
-        <v>175</v>
+        <v>381</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>437</v>
       </c>
       <c r="B38" t="s">
-        <v>17</v>
+        <v>438</v>
       </c>
       <c r="C38" t="s">
-        <v>29</v>
+        <v>439</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="E38" t="s">
-        <v>60</v>
+        <v>440</v>
       </c>
       <c r="F38">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G38">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H38">
         <v>3</v>
@@ -3530,231 +4130,231 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M38">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O38" t="s">
-        <v>20</v>
+        <v>367</v>
       </c>
       <c r="P38">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="Q38" t="s">
-        <v>58</v>
+        <v>378</v>
       </c>
       <c r="R38" t="s">
-        <v>176</v>
+        <v>379</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>61</v>
+        <v>433</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>434</v>
       </c>
       <c r="C39" t="s">
-        <v>53</v>
+        <v>435</v>
       </c>
       <c r="D39" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E39" t="s">
+        <v>436</v>
+      </c>
+      <c r="F39">
+        <v>4.3</v>
+      </c>
+      <c r="G39">
+        <v>4</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>2</v>
+      </c>
+      <c r="K39">
+        <v>5</v>
+      </c>
+      <c r="L39">
+        <v>2</v>
+      </c>
+      <c r="M39">
+        <v>3</v>
+      </c>
+      <c r="N39">
+        <v>4</v>
+      </c>
+      <c r="O39" t="s">
+        <v>367</v>
+      </c>
+      <c r="P39">
         <v>62</v>
       </c>
-      <c r="E39" t="s">
-        <v>63</v>
-      </c>
-      <c r="F39">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="G39">
-        <v>2</v>
-      </c>
-      <c r="H39">
-        <v>3</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>2</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39">
-        <v>1</v>
-      </c>
-      <c r="M39">
-        <v>2</v>
-      </c>
-      <c r="N39">
-        <v>4</v>
-      </c>
-      <c r="O39" t="s">
-        <v>20</v>
-      </c>
-      <c r="P39">
-        <v>59</v>
-      </c>
       <c r="Q39" t="s">
-        <v>64</v>
+        <v>376</v>
       </c>
       <c r="R39" t="s">
-        <v>177</v>
+        <v>377</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>66</v>
+        <v>429</v>
       </c>
       <c r="B40" t="s">
-        <v>46</v>
+        <v>430</v>
       </c>
       <c r="C40" t="s">
-        <v>47</v>
+        <v>432</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>39</v>
+        <v>248</v>
       </c>
       <c r="E40" t="s">
-        <v>67</v>
+        <v>431</v>
       </c>
       <c r="F40">
-        <v>7.8</v>
+        <v>4.8</v>
       </c>
       <c r="G40">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O40" t="s">
-        <v>20</v>
+        <v>367</v>
       </c>
       <c r="P40">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="Q40" t="s">
-        <v>65</v>
+        <v>374</v>
       </c>
       <c r="R40" t="s">
-        <v>178</v>
+        <v>375</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>68</v>
+        <v>425</v>
       </c>
       <c r="B41" t="s">
-        <v>69</v>
+        <v>426</v>
       </c>
       <c r="C41" t="s">
-        <v>70</v>
+        <v>427</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="E41" t="s">
-        <v>40</v>
+        <v>428</v>
       </c>
       <c r="F41">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="G41">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41">
         <v>2</v>
       </c>
       <c r="K41">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N41">
         <v>3</v>
       </c>
       <c r="O41" t="s">
-        <v>20</v>
+        <v>367</v>
       </c>
       <c r="P41">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="Q41" t="s">
-        <v>71</v>
+        <v>372</v>
       </c>
       <c r="R41" t="s">
-        <v>179</v>
+        <v>373</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>74</v>
+        <v>424</v>
       </c>
       <c r="B42" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="C42" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>139</v>
       </c>
       <c r="F42">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="G42">
         <v>4</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K42">
         <v>3</v>
@@ -3769,107 +4369,107 @@
         <v>3</v>
       </c>
       <c r="O42" t="s">
-        <v>73</v>
+        <v>367</v>
       </c>
       <c r="P42">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Q42" t="s">
-        <v>72</v>
+        <v>370</v>
       </c>
       <c r="R42" t="s">
-        <v>180</v>
+        <v>371</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>79</v>
+        <v>423</v>
       </c>
       <c r="B43" t="s">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="C43" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>81</v>
+        <v>246</v>
       </c>
       <c r="E43" t="s">
-        <v>49</v>
+        <v>423</v>
       </c>
       <c r="F43">
-        <v>6.8</v>
+        <v>5.9</v>
       </c>
       <c r="G43">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K43">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M43">
         <v>4</v>
       </c>
       <c r="N43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O43" t="s">
-        <v>73</v>
+        <v>367</v>
       </c>
       <c r="P43">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Q43" t="s">
-        <v>78</v>
+        <v>368</v>
       </c>
       <c r="R43" t="s">
-        <v>181</v>
+        <v>369</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>83</v>
+        <v>256</v>
       </c>
       <c r="B44" t="s">
-        <v>84</v>
+        <v>257</v>
       </c>
       <c r="C44" t="s">
-        <v>85</v>
+        <v>258</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>86</v>
+        <v>246</v>
       </c>
       <c r="E44" t="s">
-        <v>87</v>
+        <v>259</v>
       </c>
       <c r="F44">
-        <v>6.5</v>
+        <v>5.9</v>
       </c>
       <c r="G44">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="H44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I44">
         <v>0</v>
       </c>
       <c r="J44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K44">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L44">
         <v>2</v>
@@ -3878,334 +4478,334 @@
         <v>2</v>
       </c>
       <c r="N44">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O44" t="s">
-        <v>73</v>
+        <v>260</v>
       </c>
       <c r="P44">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="Q44" t="s">
-        <v>88</v>
+        <v>261</v>
       </c>
       <c r="R44" t="s">
-        <v>182</v>
+        <v>262</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>90</v>
+        <v>263</v>
       </c>
       <c r="B45" t="s">
-        <v>32</v>
+        <v>264</v>
       </c>
       <c r="C45" t="s">
-        <v>33</v>
+        <v>265</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>91</v>
+        <v>162</v>
       </c>
       <c r="E45" t="s">
-        <v>92</v>
+        <v>266</v>
       </c>
       <c r="F45">
-        <v>5.7</v>
+        <v>5.2</v>
       </c>
       <c r="G45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H45">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L45">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M45">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O45" t="s">
-        <v>73</v>
+        <v>260</v>
       </c>
       <c r="P45">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="Q45" t="s">
-        <v>89</v>
+        <v>267</v>
       </c>
       <c r="R45" t="s">
-        <v>183</v>
+        <v>268</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>94</v>
+        <v>269</v>
       </c>
       <c r="B46" t="s">
-        <v>95</v>
+        <v>270</v>
       </c>
       <c r="C46" t="s">
-        <v>96</v>
+        <v>271</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="E46" t="s">
-        <v>98</v>
+        <v>272</v>
       </c>
       <c r="F46">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="G46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H46">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J46">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K46">
         <v>4</v>
       </c>
       <c r="L46">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M46">
         <v>4</v>
       </c>
       <c r="N46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O46" t="s">
-        <v>73</v>
+        <v>260</v>
       </c>
       <c r="P46">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="Q46" t="s">
-        <v>93</v>
+        <v>273</v>
       </c>
       <c r="R46" t="s">
-        <v>184</v>
+        <v>274</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>99</v>
+        <v>275</v>
       </c>
       <c r="B47" t="s">
-        <v>100</v>
+        <v>276</v>
       </c>
       <c r="C47" t="s">
-        <v>101</v>
+        <v>277</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="E47" t="s">
-        <v>103</v>
+        <v>278</v>
       </c>
       <c r="F47">
-        <v>6.5</v>
+        <v>2.7</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M47">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N47">
         <v>2</v>
       </c>
       <c r="O47" t="s">
-        <v>73</v>
+        <v>260</v>
       </c>
       <c r="P47">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="Q47" t="s">
-        <v>104</v>
+        <v>279</v>
       </c>
       <c r="R47" t="s">
-        <v>197</v>
+        <v>280</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>106</v>
+        <v>281</v>
       </c>
       <c r="B48" t="s">
-        <v>107</v>
+        <v>282</v>
       </c>
       <c r="C48" t="s">
-        <v>108</v>
+        <v>283</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="E48" t="s">
-        <v>109</v>
+        <v>164</v>
       </c>
       <c r="F48">
-        <v>8.6</v>
+        <v>4.8</v>
       </c>
       <c r="G48">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I48">
         <v>0</v>
       </c>
       <c r="J48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K48">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L48">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N48">
         <v>3</v>
       </c>
       <c r="O48" t="s">
-        <v>73</v>
+        <v>260</v>
       </c>
       <c r="P48">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="Q48" t="s">
-        <v>105</v>
+        <v>284</v>
       </c>
       <c r="R48" t="s">
-        <v>198</v>
+        <v>285</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>110</v>
+        <v>286</v>
       </c>
       <c r="B49" t="s">
-        <v>123</v>
+        <v>287</v>
       </c>
       <c r="C49" t="s">
-        <v>124</v>
+        <v>288</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>125</v>
+        <v>289</v>
       </c>
       <c r="E49" t="s">
-        <v>110</v>
+        <v>290</v>
       </c>
       <c r="F49">
-        <v>5.3</v>
+        <v>3.8</v>
       </c>
       <c r="G49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L49">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O49" t="s">
-        <v>122</v>
+        <v>260</v>
       </c>
       <c r="P49">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="Q49" t="s">
-        <v>121</v>
+        <v>291</v>
       </c>
       <c r="R49" t="s">
-        <v>185</v>
+        <v>292</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>111</v>
+        <v>293</v>
       </c>
       <c r="B50" t="s">
-        <v>126</v>
+        <v>294</v>
       </c>
       <c r="C50" t="s">
-        <v>127</v>
+        <v>295</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="E50" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="F50">
-        <v>5.3</v>
+        <v>4</v>
       </c>
       <c r="G50">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I50">
         <v>0</v>
       </c>
       <c r="J50">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K50">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L50">
         <v>1</v>
@@ -4217,36 +4817,36 @@
         <v>2</v>
       </c>
       <c r="O50" t="s">
-        <v>122</v>
+        <v>260</v>
       </c>
       <c r="P50">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="Q50" t="s">
-        <v>120</v>
+        <v>296</v>
       </c>
       <c r="R50" t="s">
-        <v>186</v>
+        <v>297</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>112</v>
+        <v>298</v>
       </c>
       <c r="B51" t="s">
-        <v>129</v>
+        <v>299</v>
       </c>
       <c r="C51" t="s">
-        <v>130</v>
+        <v>300</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>131</v>
+        <v>248</v>
       </c>
       <c r="E51" t="s">
-        <v>132</v>
+        <v>34</v>
       </c>
       <c r="F51">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="G51">
         <v>4</v>
@@ -4255,184 +4855,184 @@
         <v>1</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K51">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M51">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O51" t="s">
-        <v>122</v>
+        <v>260</v>
       </c>
       <c r="P51">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="Q51" t="s">
-        <v>119</v>
+        <v>301</v>
       </c>
       <c r="R51" t="s">
-        <v>187</v>
+        <v>302</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>113</v>
+        <v>303</v>
       </c>
       <c r="B52" t="s">
-        <v>133</v>
+        <v>304</v>
       </c>
       <c r="C52" t="s">
-        <v>134</v>
+        <v>305</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>135</v>
+        <v>306</v>
       </c>
       <c r="E52" t="s">
-        <v>136</v>
+        <v>307</v>
       </c>
       <c r="F52">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="G52">
         <v>1</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I52">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K52">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M52">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O52" t="s">
-        <v>122</v>
+        <v>260</v>
       </c>
       <c r="P52">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="Q52" t="s">
-        <v>118</v>
+        <v>308</v>
       </c>
       <c r="R52" t="s">
-        <v>188</v>
+        <v>309</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>114</v>
+        <v>310</v>
       </c>
       <c r="B53" t="s">
-        <v>129</v>
+        <v>287</v>
       </c>
       <c r="C53" t="s">
-        <v>130</v>
+        <v>288</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>137</v>
+        <v>289</v>
       </c>
       <c r="E53" t="s">
-        <v>138</v>
+        <v>310</v>
       </c>
       <c r="F53">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="G53">
         <v>1</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I53">
         <v>0</v>
       </c>
       <c r="J53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L53">
         <v>2</v>
       </c>
       <c r="M53">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O53" t="s">
-        <v>122</v>
+        <v>260</v>
       </c>
       <c r="P53">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="Q53" t="s">
-        <v>117</v>
+        <v>311</v>
       </c>
       <c r="R53" t="s">
-        <v>189</v>
+        <v>312</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>115</v>
+        <v>313</v>
       </c>
       <c r="B54" t="s">
-        <v>133</v>
+        <v>314</v>
       </c>
       <c r="C54" t="s">
-        <v>134</v>
+        <v>315</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>91</v>
+        <v>316</v>
       </c>
       <c r="E54" t="s">
-        <v>139</v>
+        <v>92</v>
       </c>
       <c r="F54">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="G54">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H54">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L54">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M54">
         <v>4</v>
@@ -4441,107 +5041,107 @@
         <v>1</v>
       </c>
       <c r="O54" t="s">
-        <v>122</v>
+        <v>260</v>
       </c>
       <c r="P54">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="Q54" t="s">
-        <v>116</v>
+        <v>317</v>
       </c>
       <c r="R54" t="s">
-        <v>190</v>
+        <v>318</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>141</v>
+        <v>319</v>
       </c>
       <c r="B55" t="s">
-        <v>142</v>
+        <v>299</v>
       </c>
       <c r="C55" t="s">
-        <v>143</v>
+        <v>300</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="E55" t="s">
-        <v>49</v>
+        <v>320</v>
       </c>
       <c r="F55">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="G55">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
       <c r="J55">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K55">
         <v>1</v>
       </c>
       <c r="L55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M55">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O55" t="s">
-        <v>145</v>
+        <v>260</v>
       </c>
       <c r="P55">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="Q55" t="s">
-        <v>140</v>
+        <v>321</v>
       </c>
       <c r="R55" t="s">
-        <v>196</v>
+        <v>322</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>147</v>
+        <v>329</v>
       </c>
       <c r="B56" t="s">
-        <v>148</v>
+        <v>264</v>
       </c>
       <c r="C56" t="s">
-        <v>149</v>
+        <v>265</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>48</v>
+        <v>210</v>
       </c>
       <c r="E56" t="s">
-        <v>150</v>
+        <v>329</v>
       </c>
       <c r="F56">
-        <v>5.4</v>
+        <v>7.2</v>
       </c>
       <c r="G56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I56">
         <v>0</v>
       </c>
       <c r="J56">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L56">
         <v>3</v>
@@ -4550,57 +5150,57 @@
         <v>4</v>
       </c>
       <c r="N56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O56" t="s">
-        <v>145</v>
+        <v>260</v>
       </c>
       <c r="P56">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="Q56" t="s">
-        <v>146</v>
+        <v>323</v>
       </c>
       <c r="R56" t="s">
-        <v>191</v>
+        <v>324</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>155</v>
+        <v>330</v>
       </c>
       <c r="B57" t="s">
-        <v>159</v>
+        <v>257</v>
       </c>
       <c r="C57" t="s">
-        <v>160</v>
+        <v>258</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>161</v>
+        <v>246</v>
       </c>
       <c r="E57" t="s">
-        <v>163</v>
+        <v>331</v>
       </c>
       <c r="F57">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="G57">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K57">
         <v>3</v>
       </c>
       <c r="L57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M57">
         <v>3</v>
@@ -4609,183 +5209,2535 @@
         <v>2</v>
       </c>
       <c r="O57" t="s">
-        <v>145</v>
+        <v>260</v>
       </c>
       <c r="P57">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="Q57" t="s">
-        <v>151</v>
+        <v>325</v>
       </c>
       <c r="R57" t="s">
-        <v>192</v>
+        <v>326</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>156</v>
+        <v>332</v>
       </c>
       <c r="B58" t="s">
-        <v>148</v>
+        <v>333</v>
       </c>
       <c r="C58" t="s">
-        <v>149</v>
+        <v>334</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="E58" t="s">
-        <v>164</v>
+        <v>335</v>
       </c>
       <c r="F58">
-        <v>5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="G58">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K58">
         <v>3</v>
       </c>
       <c r="L58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M58">
         <v>1</v>
       </c>
       <c r="N58">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O58" t="s">
-        <v>145</v>
+        <v>260</v>
       </c>
       <c r="P58">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="Q58" t="s">
-        <v>152</v>
+        <v>327</v>
       </c>
       <c r="R58" t="s">
-        <v>193</v>
+        <v>328</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>157</v>
+        <v>241</v>
       </c>
       <c r="B59" t="s">
-        <v>148</v>
+        <v>201</v>
       </c>
       <c r="C59" t="s">
-        <v>149</v>
+        <v>199</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>137</v>
       </c>
       <c r="E59" t="s">
-        <v>165</v>
+        <v>245</v>
       </c>
       <c r="F59">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="J59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K59">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M59">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O59" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="P59">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="Q59" t="s">
-        <v>153</v>
+        <v>235</v>
       </c>
       <c r="R59" t="s">
-        <v>194</v>
+        <v>236</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>240</v>
+      </c>
+      <c r="B60" t="s">
+        <v>203</v>
+      </c>
+      <c r="C60" t="s">
+        <v>199</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E60" t="s">
+        <v>247</v>
+      </c>
+      <c r="F60">
+        <v>4.8</v>
+      </c>
+      <c r="G60">
+        <v>2</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>3</v>
+      </c>
+      <c r="K60">
+        <v>2</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
+      <c r="M60">
+        <v>3</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60" t="s">
+        <v>199</v>
+      </c>
+      <c r="P60">
+        <v>60</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>234</v>
+      </c>
+      <c r="R60" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>239</v>
+      </c>
+      <c r="B61" t="s">
+        <v>201</v>
+      </c>
+      <c r="C61" t="s">
+        <v>199</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E61" t="s">
+        <v>250</v>
+      </c>
+      <c r="F61">
+        <v>4.5</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>4</v>
+      </c>
+      <c r="J61">
+        <v>5</v>
+      </c>
+      <c r="K61">
+        <v>5</v>
+      </c>
+      <c r="L61">
+        <v>3</v>
+      </c>
+      <c r="M61">
+        <v>4</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61" t="s">
+        <v>199</v>
+      </c>
+      <c r="P61">
+        <v>60</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>231</v>
+      </c>
+      <c r="R61" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>238</v>
+      </c>
+      <c r="B62" t="s">
+        <v>242</v>
+      </c>
+      <c r="C62" t="s">
+        <v>244</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E62" t="s">
+        <v>249</v>
+      </c>
+      <c r="F62">
+        <v>5.5</v>
+      </c>
+      <c r="G62">
+        <v>4</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+      <c r="M62">
+        <v>3</v>
+      </c>
+      <c r="N62">
+        <v>2</v>
+      </c>
+      <c r="O62" t="s">
+        <v>199</v>
+      </c>
+      <c r="P62">
+        <v>60</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>230</v>
+      </c>
+      <c r="R62" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>237</v>
+      </c>
+      <c r="B63" t="s">
+        <v>243</v>
+      </c>
+      <c r="C63" t="s">
+        <v>199</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E63" t="s">
+        <v>34</v>
+      </c>
+      <c r="F63">
+        <v>6.1</v>
+      </c>
+      <c r="G63">
+        <v>5</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>3</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="M63">
+        <v>2</v>
+      </c>
+      <c r="N63">
+        <v>5</v>
+      </c>
+      <c r="O63" t="s">
+        <v>199</v>
+      </c>
+      <c r="P63">
+        <v>60</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>227</v>
+      </c>
+      <c r="R63" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>200</v>
+      </c>
+      <c r="B64" t="s">
+        <v>201</v>
+      </c>
+      <c r="C64" t="s">
+        <v>199</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E64" t="s">
+        <v>164</v>
+      </c>
+      <c r="F64">
+        <v>5</v>
+      </c>
+      <c r="G64">
+        <v>2</v>
+      </c>
+      <c r="H64">
+        <v>3</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>2</v>
+      </c>
+      <c r="K64">
+        <v>2</v>
+      </c>
+      <c r="L64">
+        <v>2.5</v>
+      </c>
+      <c r="M64">
+        <v>4</v>
+      </c>
+      <c r="N64">
+        <v>2.5</v>
+      </c>
+      <c r="O64" t="s">
+        <v>199</v>
+      </c>
+      <c r="P64">
+        <v>60</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>220</v>
+      </c>
+      <c r="R64" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>202</v>
+      </c>
+      <c r="B65" t="s">
+        <v>203</v>
+      </c>
+      <c r="C65" t="s">
+        <v>199</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E65" t="s">
+        <v>164</v>
+      </c>
+      <c r="F65">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G65">
+        <v>4</v>
+      </c>
+      <c r="H65">
+        <v>2</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>4</v>
+      </c>
+      <c r="K65">
+        <v>3</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>4</v>
+      </c>
+      <c r="N65">
+        <v>2</v>
+      </c>
+      <c r="O65" t="s">
+        <v>199</v>
+      </c>
+      <c r="P65">
+        <v>60</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>251</v>
+      </c>
+      <c r="R65" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>204</v>
+      </c>
+      <c r="B66" t="s">
+        <v>205</v>
+      </c>
+      <c r="C66" t="s">
+        <v>199</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E66" t="s">
+        <v>49</v>
+      </c>
+      <c r="F66">
+        <v>6.7</v>
+      </c>
+      <c r="G66">
+        <v>4</v>
+      </c>
+      <c r="H66">
+        <v>3</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>3</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>2</v>
+      </c>
+      <c r="M66">
+        <v>3</v>
+      </c>
+      <c r="N66">
+        <v>4</v>
+      </c>
+      <c r="O66" t="s">
+        <v>199</v>
+      </c>
+      <c r="P66">
+        <v>60</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>222</v>
+      </c>
+      <c r="R66" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>206</v>
+      </c>
+      <c r="B67" t="s">
+        <v>207</v>
+      </c>
+      <c r="C67" t="s">
+        <v>199</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E67" t="s">
+        <v>208</v>
+      </c>
+      <c r="F67">
+        <v>6</v>
+      </c>
+      <c r="G67">
+        <v>5</v>
+      </c>
+      <c r="H67">
+        <v>3</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
+      <c r="M67">
+        <v>4</v>
+      </c>
+      <c r="N67">
+        <v>2</v>
+      </c>
+      <c r="O67" t="s">
+        <v>199</v>
+      </c>
+      <c r="P67">
+        <v>60</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>218</v>
+      </c>
+      <c r="R67" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>209</v>
+      </c>
+      <c r="B68" t="s">
+        <v>203</v>
+      </c>
+      <c r="C68" t="s">
+        <v>199</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E68" t="s">
+        <v>150</v>
+      </c>
+      <c r="F68">
+        <v>5</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>5</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68">
+        <v>3</v>
+      </c>
+      <c r="M68">
+        <v>5</v>
+      </c>
+      <c r="N68">
+        <v>2</v>
+      </c>
+      <c r="O68" t="s">
+        <v>199</v>
+      </c>
+      <c r="P68">
+        <v>60</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>224</v>
+      </c>
+      <c r="R68" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>211</v>
+      </c>
+      <c r="B69" t="s">
+        <v>201</v>
+      </c>
+      <c r="C69" t="s">
+        <v>199</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E69" t="s">
+        <v>212</v>
+      </c>
+      <c r="F69">
+        <v>6.5</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>4</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>3</v>
+      </c>
+      <c r="L69">
+        <v>3</v>
+      </c>
+      <c r="M69">
+        <v>4</v>
+      </c>
+      <c r="N69">
+        <v>2</v>
+      </c>
+      <c r="O69" t="s">
+        <v>199</v>
+      </c>
+      <c r="P69">
+        <v>60</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>216</v>
+      </c>
+      <c r="R69" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>213</v>
+      </c>
+      <c r="B70" t="s">
+        <v>205</v>
+      </c>
+      <c r="C70" t="s">
+        <v>199</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E70" t="s">
+        <v>57</v>
+      </c>
+      <c r="F70">
+        <v>6.5</v>
+      </c>
+      <c r="G70">
+        <v>3</v>
+      </c>
+      <c r="H70">
+        <v>4</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>3</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>2</v>
+      </c>
+      <c r="M70">
+        <v>3</v>
+      </c>
+      <c r="N70">
+        <v>3</v>
+      </c>
+      <c r="O70" t="s">
+        <v>199</v>
+      </c>
+      <c r="P70">
+        <v>60</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>253</v>
+      </c>
+      <c r="R70" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>214</v>
+      </c>
+      <c r="B71" t="s">
+        <v>207</v>
+      </c>
+      <c r="C71" t="s">
+        <v>199</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E71" t="s">
+        <v>215</v>
+      </c>
+      <c r="F71">
+        <v>6</v>
+      </c>
+      <c r="G71">
+        <v>3</v>
+      </c>
+      <c r="H71">
+        <v>5</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>5</v>
+      </c>
+      <c r="M71">
+        <v>5</v>
+      </c>
+      <c r="N71">
+        <v>1</v>
+      </c>
+      <c r="O71" t="s">
+        <v>199</v>
+      </c>
+      <c r="P71">
+        <v>60</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>255</v>
+      </c>
+      <c r="R71" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>16</v>
+      </c>
+      <c r="B72" t="s">
+        <v>17</v>
+      </c>
+      <c r="C72" t="s">
+        <v>29</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E72" t="s">
+        <v>19</v>
+      </c>
+      <c r="F72">
+        <v>5</v>
+      </c>
+      <c r="G72">
+        <v>2</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>2</v>
+      </c>
+      <c r="K72">
+        <v>3</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
+      </c>
+      <c r="M72">
+        <v>2</v>
+      </c>
+      <c r="N72">
+        <v>2</v>
+      </c>
+      <c r="O72" t="s">
+        <v>20</v>
+      </c>
+      <c r="P72">
+        <v>59</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>21</v>
+      </c>
+      <c r="R72" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>22</v>
+      </c>
+      <c r="B73" t="s">
+        <v>24</v>
+      </c>
+      <c r="C73" t="s">
+        <v>25</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E73" t="s">
+        <v>27</v>
+      </c>
+      <c r="F73">
+        <v>4.8</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="I73">
+        <v>2</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73">
+        <v>3</v>
+      </c>
+      <c r="L73">
+        <v>1</v>
+      </c>
+      <c r="M73">
+        <v>1</v>
+      </c>
+      <c r="N73">
+        <v>1</v>
+      </c>
+      <c r="O73" t="s">
+        <v>20</v>
+      </c>
+      <c r="P73">
+        <v>59</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>28</v>
+      </c>
+      <c r="R73" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>31</v>
+      </c>
+      <c r="B74" t="s">
+        <v>32</v>
+      </c>
+      <c r="C74" t="s">
+        <v>33</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E74" t="s">
+        <v>34</v>
+      </c>
+      <c r="F74">
+        <v>6.5</v>
+      </c>
+      <c r="G74">
+        <v>5</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>2</v>
+      </c>
+      <c r="K74">
+        <v>5</v>
+      </c>
+      <c r="L74">
+        <v>1</v>
+      </c>
+      <c r="M74">
+        <v>2</v>
+      </c>
+      <c r="N74">
+        <v>4</v>
+      </c>
+      <c r="O74" t="s">
+        <v>20</v>
+      </c>
+      <c r="P74">
+        <v>59</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>30</v>
+      </c>
+      <c r="R74" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>36</v>
+      </c>
+      <c r="B75" t="s">
+        <v>37</v>
+      </c>
+      <c r="C75" t="s">
+        <v>38</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E75" t="s">
+        <v>40</v>
+      </c>
+      <c r="F75">
+        <v>4.8</v>
+      </c>
+      <c r="G75">
+        <v>4</v>
+      </c>
+      <c r="H75">
+        <v>2</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="J75">
+        <v>2</v>
+      </c>
+      <c r="K75">
+        <v>2</v>
+      </c>
+      <c r="L75">
+        <v>2</v>
+      </c>
+      <c r="M75">
+        <v>4</v>
+      </c>
+      <c r="N75">
+        <v>3</v>
+      </c>
+      <c r="O75" t="s">
+        <v>20</v>
+      </c>
+      <c r="P75">
+        <v>59</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>35</v>
+      </c>
+      <c r="R75" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>42</v>
+      </c>
+      <c r="B76" t="s">
+        <v>17</v>
+      </c>
+      <c r="C76" t="s">
+        <v>29</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E76" t="s">
+        <v>43</v>
+      </c>
+      <c r="F76">
+        <v>6</v>
+      </c>
+      <c r="G76">
+        <v>4</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="K76">
+        <v>3</v>
+      </c>
+      <c r="L76">
+        <v>1</v>
+      </c>
+      <c r="M76">
+        <v>1</v>
+      </c>
+      <c r="N76">
+        <v>3</v>
+      </c>
+      <c r="O76" t="s">
+        <v>20</v>
+      </c>
+      <c r="P76">
+        <v>59</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>41</v>
+      </c>
+      <c r="R76" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>45</v>
+      </c>
+      <c r="B77" t="s">
+        <v>46</v>
+      </c>
+      <c r="C77" t="s">
+        <v>47</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E77" t="s">
+        <v>49</v>
+      </c>
+      <c r="F77">
+        <v>5.5</v>
+      </c>
+      <c r="G77">
+        <v>3</v>
+      </c>
+      <c r="H77">
+        <v>2</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <v>3</v>
+      </c>
+      <c r="N77">
+        <v>3</v>
+      </c>
+      <c r="O77" t="s">
+        <v>20</v>
+      </c>
+      <c r="P77">
+        <v>59</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>44</v>
+      </c>
+      <c r="R77" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>51</v>
+      </c>
+      <c r="B78" t="s">
+        <v>52</v>
+      </c>
+      <c r="C78" t="s">
+        <v>53</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E78" t="s">
+        <v>40</v>
+      </c>
+      <c r="F78">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G78">
+        <v>4</v>
+      </c>
+      <c r="H78">
+        <v>1</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
+      </c>
+      <c r="K78">
+        <v>4</v>
+      </c>
+      <c r="L78">
+        <v>2</v>
+      </c>
+      <c r="M78">
+        <v>4</v>
+      </c>
+      <c r="N78">
+        <v>1</v>
+      </c>
+      <c r="O78" t="s">
+        <v>20</v>
+      </c>
+      <c r="P78">
+        <v>59</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>50</v>
+      </c>
+      <c r="R78" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>55</v>
+      </c>
+      <c r="B79" t="s">
+        <v>32</v>
+      </c>
+      <c r="C79" t="s">
+        <v>33</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E79" t="s">
+        <v>57</v>
+      </c>
+      <c r="F79">
+        <v>6.8</v>
+      </c>
+      <c r="G79">
+        <v>4</v>
+      </c>
+      <c r="H79">
+        <v>2</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="K79">
+        <v>3</v>
+      </c>
+      <c r="L79">
+        <v>1</v>
+      </c>
+      <c r="M79">
+        <v>2</v>
+      </c>
+      <c r="N79">
+        <v>4</v>
+      </c>
+      <c r="O79" t="s">
+        <v>20</v>
+      </c>
+      <c r="P79">
+        <v>59</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>54</v>
+      </c>
+      <c r="R79" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>59</v>
+      </c>
+      <c r="B80" t="s">
+        <v>17</v>
+      </c>
+      <c r="C80" t="s">
+        <v>29</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E80" t="s">
+        <v>60</v>
+      </c>
+      <c r="F80">
+        <v>7</v>
+      </c>
+      <c r="G80">
+        <v>5</v>
+      </c>
+      <c r="H80">
+        <v>3</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="K80">
+        <v>4</v>
+      </c>
+      <c r="L80">
+        <v>4</v>
+      </c>
+      <c r="M80">
+        <v>5</v>
+      </c>
+      <c r="N80">
+        <v>3</v>
+      </c>
+      <c r="O80" t="s">
+        <v>20</v>
+      </c>
+      <c r="P80">
+        <v>59</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>58</v>
+      </c>
+      <c r="R80" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>61</v>
+      </c>
+      <c r="B81" t="s">
+        <v>52</v>
+      </c>
+      <c r="C81" t="s">
+        <v>53</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E81" t="s">
+        <v>63</v>
+      </c>
+      <c r="F81">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G81">
+        <v>2</v>
+      </c>
+      <c r="H81">
+        <v>3</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>2</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>1</v>
+      </c>
+      <c r="M81">
+        <v>2</v>
+      </c>
+      <c r="N81">
+        <v>4</v>
+      </c>
+      <c r="O81" t="s">
+        <v>20</v>
+      </c>
+      <c r="P81">
+        <v>59</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>64</v>
+      </c>
+      <c r="R81" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>66</v>
+      </c>
+      <c r="B82" t="s">
+        <v>46</v>
+      </c>
+      <c r="C82" t="s">
+        <v>47</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E82" t="s">
+        <v>67</v>
+      </c>
+      <c r="F82">
+        <v>7.8</v>
+      </c>
+      <c r="G82">
+        <v>5</v>
+      </c>
+      <c r="H82">
+        <v>3</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>1</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>3</v>
+      </c>
+      <c r="M82">
+        <v>4</v>
+      </c>
+      <c r="N82">
+        <v>2</v>
+      </c>
+      <c r="O82" t="s">
+        <v>20</v>
+      </c>
+      <c r="P82">
+        <v>59</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>65</v>
+      </c>
+      <c r="R82" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>68</v>
+      </c>
+      <c r="B83" t="s">
+        <v>69</v>
+      </c>
+      <c r="C83" t="s">
+        <v>70</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E83" t="s">
+        <v>40</v>
+      </c>
+      <c r="F83">
+        <v>4.7</v>
+      </c>
+      <c r="G83">
+        <v>4</v>
+      </c>
+      <c r="H83">
+        <v>3</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>2</v>
+      </c>
+      <c r="K83">
+        <v>4</v>
+      </c>
+      <c r="L83">
+        <v>3</v>
+      </c>
+      <c r="M83">
+        <v>4</v>
+      </c>
+      <c r="N83">
+        <v>3</v>
+      </c>
+      <c r="O83" t="s">
+        <v>20</v>
+      </c>
+      <c r="P83">
+        <v>59</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>71</v>
+      </c>
+      <c r="R83" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>74</v>
+      </c>
+      <c r="B84" t="s">
+        <v>75</v>
+      </c>
+      <c r="C84" t="s">
+        <v>76</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E84" t="s">
+        <v>43</v>
+      </c>
+      <c r="F84">
+        <v>4.2</v>
+      </c>
+      <c r="G84">
+        <v>4</v>
+      </c>
+      <c r="H84">
+        <v>2</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <v>3</v>
+      </c>
+      <c r="K84">
+        <v>3</v>
+      </c>
+      <c r="L84">
+        <v>2</v>
+      </c>
+      <c r="M84">
+        <v>3</v>
+      </c>
+      <c r="N84">
+        <v>3</v>
+      </c>
+      <c r="O84" t="s">
+        <v>73</v>
+      </c>
+      <c r="P84">
+        <v>58</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>72</v>
+      </c>
+      <c r="R84" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>79</v>
+      </c>
+      <c r="B85" t="s">
+        <v>80</v>
+      </c>
+      <c r="C85" t="s">
+        <v>82</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E85" t="s">
+        <v>49</v>
+      </c>
+      <c r="F85">
+        <v>6.8</v>
+      </c>
+      <c r="G85">
+        <v>5</v>
+      </c>
+      <c r="H85">
+        <v>2</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>2</v>
+      </c>
+      <c r="K85">
+        <v>4</v>
+      </c>
+      <c r="L85">
+        <v>1</v>
+      </c>
+      <c r="M85">
+        <v>4</v>
+      </c>
+      <c r="N85">
+        <v>4</v>
+      </c>
+      <c r="O85" t="s">
+        <v>73</v>
+      </c>
+      <c r="P85">
+        <v>58</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>78</v>
+      </c>
+      <c r="R85" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>83</v>
+      </c>
+      <c r="B86" t="s">
+        <v>84</v>
+      </c>
+      <c r="C86" t="s">
+        <v>85</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E86" t="s">
+        <v>87</v>
+      </c>
+      <c r="F86">
+        <v>6.5</v>
+      </c>
+      <c r="G86">
+        <v>4.5</v>
+      </c>
+      <c r="H86">
+        <v>4</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>2</v>
+      </c>
+      <c r="K86">
+        <v>2</v>
+      </c>
+      <c r="L86">
+        <v>2</v>
+      </c>
+      <c r="M86">
+        <v>2</v>
+      </c>
+      <c r="N86">
+        <v>4</v>
+      </c>
+      <c r="O86" t="s">
+        <v>73</v>
+      </c>
+      <c r="P86">
+        <v>58</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>88</v>
+      </c>
+      <c r="R86" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>90</v>
+      </c>
+      <c r="B87" t="s">
+        <v>32</v>
+      </c>
+      <c r="C87" t="s">
+        <v>33</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E87" t="s">
+        <v>92</v>
+      </c>
+      <c r="F87">
+        <v>5.7</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+      <c r="H87">
+        <v>4</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="K87">
+        <v>2</v>
+      </c>
+      <c r="L87">
+        <v>4</v>
+      </c>
+      <c r="M87">
+        <v>5</v>
+      </c>
+      <c r="N87">
+        <v>2</v>
+      </c>
+      <c r="O87" t="s">
+        <v>73</v>
+      </c>
+      <c r="P87">
+        <v>58</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>89</v>
+      </c>
+      <c r="R87" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>94</v>
+      </c>
+      <c r="B88" t="s">
+        <v>95</v>
+      </c>
+      <c r="C88" t="s">
+        <v>96</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E88" t="s">
+        <v>98</v>
+      </c>
+      <c r="F88">
+        <v>5.5</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <v>4</v>
+      </c>
+      <c r="I88">
+        <v>2</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+      <c r="K88">
+        <v>4</v>
+      </c>
+      <c r="L88">
+        <v>5</v>
+      </c>
+      <c r="M88">
+        <v>4</v>
+      </c>
+      <c r="N88">
+        <v>2</v>
+      </c>
+      <c r="O88" t="s">
+        <v>73</v>
+      </c>
+      <c r="P88">
+        <v>58</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>93</v>
+      </c>
+      <c r="R88" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>99</v>
+      </c>
+      <c r="B89" t="s">
+        <v>100</v>
+      </c>
+      <c r="C89" t="s">
+        <v>101</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E89" t="s">
+        <v>103</v>
+      </c>
+      <c r="F89">
+        <v>6.5</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>3</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
+      <c r="L89">
+        <v>3</v>
+      </c>
+      <c r="M89">
+        <v>5</v>
+      </c>
+      <c r="N89">
+        <v>2</v>
+      </c>
+      <c r="O89" t="s">
+        <v>73</v>
+      </c>
+      <c r="P89">
+        <v>58</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>104</v>
+      </c>
+      <c r="R89" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>106</v>
+      </c>
+      <c r="B90" t="s">
+        <v>107</v>
+      </c>
+      <c r="C90" t="s">
+        <v>108</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E90" t="s">
+        <v>109</v>
+      </c>
+      <c r="F90">
+        <v>8.6</v>
+      </c>
+      <c r="G90">
+        <v>4</v>
+      </c>
+      <c r="H90">
+        <v>3</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>2</v>
+      </c>
+      <c r="K90">
+        <v>4</v>
+      </c>
+      <c r="L90">
+        <v>3</v>
+      </c>
+      <c r="M90">
+        <v>3</v>
+      </c>
+      <c r="N90">
+        <v>3</v>
+      </c>
+      <c r="O90" t="s">
+        <v>73</v>
+      </c>
+      <c r="P90">
+        <v>58</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>105</v>
+      </c>
+      <c r="R90" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>110</v>
+      </c>
+      <c r="B91" t="s">
+        <v>123</v>
+      </c>
+      <c r="C91" t="s">
+        <v>124</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E91" t="s">
+        <v>110</v>
+      </c>
+      <c r="F91">
+        <v>5.3</v>
+      </c>
+      <c r="G91">
+        <v>2</v>
+      </c>
+      <c r="H91">
+        <v>1</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91">
+        <v>4</v>
+      </c>
+      <c r="K91">
+        <v>4</v>
+      </c>
+      <c r="L91">
+        <v>4</v>
+      </c>
+      <c r="M91">
+        <v>4</v>
+      </c>
+      <c r="N91">
+        <v>2</v>
+      </c>
+      <c r="O91" t="s">
+        <v>122</v>
+      </c>
+      <c r="P91">
+        <v>57</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>121</v>
+      </c>
+      <c r="R91" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>111</v>
+      </c>
+      <c r="B92" t="s">
+        <v>126</v>
+      </c>
+      <c r="C92" t="s">
+        <v>127</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E92" t="s">
+        <v>128</v>
+      </c>
+      <c r="F92">
+        <v>5.3</v>
+      </c>
+      <c r="G92">
+        <v>3</v>
+      </c>
+      <c r="H92">
+        <v>3</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>2</v>
+      </c>
+      <c r="L92">
+        <v>1</v>
+      </c>
+      <c r="M92">
+        <v>4</v>
+      </c>
+      <c r="N92">
+        <v>2</v>
+      </c>
+      <c r="O92" t="s">
+        <v>122</v>
+      </c>
+      <c r="P92">
+        <v>57</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>120</v>
+      </c>
+      <c r="R92" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>112</v>
+      </c>
+      <c r="B93" t="s">
+        <v>129</v>
+      </c>
+      <c r="C93" t="s">
+        <v>130</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E93" t="s">
+        <v>132</v>
+      </c>
+      <c r="F93">
+        <v>6.5</v>
+      </c>
+      <c r="G93">
+        <v>4</v>
+      </c>
+      <c r="H93">
+        <v>1</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93">
+        <v>3</v>
+      </c>
+      <c r="K93">
+        <v>4</v>
+      </c>
+      <c r="L93">
+        <v>1</v>
+      </c>
+      <c r="M93">
+        <v>4</v>
+      </c>
+      <c r="N93">
+        <v>2</v>
+      </c>
+      <c r="O93" t="s">
+        <v>122</v>
+      </c>
+      <c r="P93">
+        <v>57</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>119</v>
+      </c>
+      <c r="R93" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>113</v>
+      </c>
+      <c r="B94" t="s">
+        <v>133</v>
+      </c>
+      <c r="C94" t="s">
+        <v>134</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E94" t="s">
+        <v>136</v>
+      </c>
+      <c r="F94">
+        <v>4</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+      <c r="H94">
+        <v>2</v>
+      </c>
+      <c r="I94">
+        <v>3</v>
+      </c>
+      <c r="J94">
+        <v>2</v>
+      </c>
+      <c r="K94">
+        <v>4</v>
+      </c>
+      <c r="L94">
+        <v>2</v>
+      </c>
+      <c r="M94">
+        <v>5</v>
+      </c>
+      <c r="N94">
+        <v>0</v>
+      </c>
+      <c r="O94" t="s">
+        <v>122</v>
+      </c>
+      <c r="P94">
+        <v>57</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>118</v>
+      </c>
+      <c r="R94" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>114</v>
+      </c>
+      <c r="B95" t="s">
+        <v>129</v>
+      </c>
+      <c r="C95" t="s">
+        <v>130</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E95" t="s">
+        <v>138</v>
+      </c>
+      <c r="F95">
+        <v>5.5</v>
+      </c>
+      <c r="G95">
+        <v>1</v>
+      </c>
+      <c r="H95">
+        <v>2</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>2</v>
+      </c>
+      <c r="K95">
+        <v>2</v>
+      </c>
+      <c r="L95">
+        <v>2</v>
+      </c>
+      <c r="M95">
+        <v>5</v>
+      </c>
+      <c r="N95">
+        <v>0</v>
+      </c>
+      <c r="O95" t="s">
+        <v>122</v>
+      </c>
+      <c r="P95">
+        <v>57</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>117</v>
+      </c>
+      <c r="R95" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>115</v>
+      </c>
+      <c r="B96" t="s">
+        <v>133</v>
+      </c>
+      <c r="C96" t="s">
+        <v>134</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E96" t="s">
+        <v>139</v>
+      </c>
+      <c r="F96">
+        <v>6.5</v>
+      </c>
+      <c r="G96">
+        <v>4</v>
+      </c>
+      <c r="H96">
+        <v>3</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <v>4</v>
+      </c>
+      <c r="K96">
+        <v>3</v>
+      </c>
+      <c r="L96">
+        <v>2</v>
+      </c>
+      <c r="M96">
+        <v>4</v>
+      </c>
+      <c r="N96">
+        <v>1</v>
+      </c>
+      <c r="O96" t="s">
+        <v>122</v>
+      </c>
+      <c r="P96">
+        <v>57</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>116</v>
+      </c>
+      <c r="R96" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>141</v>
+      </c>
+      <c r="B97" t="s">
+        <v>142</v>
+      </c>
+      <c r="C97" t="s">
+        <v>143</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E97" t="s">
+        <v>49</v>
+      </c>
+      <c r="F97">
+        <v>7</v>
+      </c>
+      <c r="G97">
+        <v>4</v>
+      </c>
+      <c r="H97">
+        <v>2</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>3</v>
+      </c>
+      <c r="K97">
+        <v>1</v>
+      </c>
+      <c r="L97">
+        <v>2</v>
+      </c>
+      <c r="M97">
+        <v>3</v>
+      </c>
+      <c r="N97">
+        <v>3</v>
+      </c>
+      <c r="O97" t="s">
+        <v>145</v>
+      </c>
+      <c r="P97">
+        <v>56</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>140</v>
+      </c>
+      <c r="R97" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>147</v>
+      </c>
+      <c r="B98" t="s">
+        <v>148</v>
+      </c>
+      <c r="C98" t="s">
+        <v>149</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E98" t="s">
+        <v>150</v>
+      </c>
+      <c r="F98">
+        <v>5.4</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+      <c r="H98">
+        <v>5</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>3</v>
+      </c>
+      <c r="M98">
+        <v>4</v>
+      </c>
+      <c r="N98">
+        <v>2</v>
+      </c>
+      <c r="O98" t="s">
+        <v>145</v>
+      </c>
+      <c r="P98">
+        <v>56</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>146</v>
+      </c>
+      <c r="R98" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>155</v>
+      </c>
+      <c r="B99" t="s">
+        <v>159</v>
+      </c>
+      <c r="C99" t="s">
+        <v>160</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E99" t="s">
+        <v>163</v>
+      </c>
+      <c r="F99">
+        <v>4.5</v>
+      </c>
+      <c r="G99">
+        <v>3</v>
+      </c>
+      <c r="H99">
+        <v>1</v>
+      </c>
+      <c r="I99">
+        <v>2</v>
+      </c>
+      <c r="J99">
+        <v>1</v>
+      </c>
+      <c r="K99">
+        <v>3</v>
+      </c>
+      <c r="L99">
+        <v>1</v>
+      </c>
+      <c r="M99">
+        <v>3</v>
+      </c>
+      <c r="N99">
+        <v>2</v>
+      </c>
+      <c r="O99" t="s">
+        <v>145</v>
+      </c>
+      <c r="P99">
+        <v>56</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>151</v>
+      </c>
+      <c r="R99" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>156</v>
+      </c>
+      <c r="B100" t="s">
+        <v>148</v>
+      </c>
+      <c r="C100" t="s">
+        <v>149</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E100" t="s">
+        <v>164</v>
+      </c>
+      <c r="F100">
+        <v>5</v>
+      </c>
+      <c r="G100">
+        <v>4</v>
+      </c>
+      <c r="H100">
+        <v>1</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>3</v>
+      </c>
+      <c r="K100">
+        <v>3</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>1</v>
+      </c>
+      <c r="N100">
+        <v>3</v>
+      </c>
+      <c r="O100" t="s">
+        <v>145</v>
+      </c>
+      <c r="P100">
+        <v>56</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>152</v>
+      </c>
+      <c r="R100" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>157</v>
+      </c>
+      <c r="B101" t="s">
+        <v>148</v>
+      </c>
+      <c r="C101" t="s">
+        <v>149</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E101" t="s">
+        <v>165</v>
+      </c>
+      <c r="F101">
+        <v>3.5</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>4</v>
+      </c>
+      <c r="J101">
+        <v>3</v>
+      </c>
+      <c r="K101">
+        <v>4</v>
+      </c>
+      <c r="L101">
+        <v>1</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="N101">
+        <v>0</v>
+      </c>
+      <c r="O101" t="s">
+        <v>145</v>
+      </c>
+      <c r="P101">
+        <v>56</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>153</v>
+      </c>
+      <c r="R101" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
         <v>158</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B102" t="s">
         <v>159</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C102" t="s">
         <v>160</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D102" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E102" t="s">
         <v>166</v>
       </c>
-      <c r="F60">
+      <c r="F102">
         <v>4.2</v>
       </c>
-      <c r="G60">
-        <v>1</v>
-      </c>
-      <c r="H60">
-        <v>3</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-      <c r="K60">
-        <v>0</v>
-      </c>
-      <c r="L60">
-        <v>1</v>
-      </c>
-      <c r="M60">
+      <c r="G102">
+        <v>1</v>
+      </c>
+      <c r="H102">
+        <v>3</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>1</v>
+      </c>
+      <c r="M102">
         <v>5</v>
       </c>
-      <c r="N60">
-        <v>0</v>
-      </c>
-      <c r="O60" t="s">
+      <c r="N102">
+        <v>0</v>
+      </c>
+      <c r="O102" t="s">
         <v>145</v>
       </c>
-      <c r="P60">
+      <c r="P102">
         <v>56</v>
       </c>
-      <c r="Q60" t="s">
+      <c r="Q102" t="s">
         <v>154</v>
       </c>
-      <c r="R60" t="s">
+      <c r="R102" t="s">
         <v>195</v>
       </c>
     </row>
@@ -4793,8 +7745,8 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="D37 D45 D54" twoDigitTextYear="1"/>
-    <ignoredError sqref="D42:D43 D46 D47:D48 D52" numberStoredAsText="1"/>
+    <ignoredError sqref="D79 D87 D96" twoDigitTextYear="1"/>
+    <ignoredError sqref="D84:D85 D88 D89:D90 D94" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>